--- a/inputs_sc3.xlsx
+++ b/inputs_sc3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizrts/Documents/llm_eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA18B8D-99E8-CF44-AE11-CBFEB71E81E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C90F802-6624-F943-BEA8-9766A291C9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1320">
   <si>
     <t>Hard constraint</t>
   </si>
@@ -2947,1011 +2947,6 @@
     <t>Do you think we should volunteer as judges for the local curry cooking competition?</t>
   </si>
   <si>
-    <t>My friend enjoys target shooting, collecting antique firearms, and teaching gun safety.</t>
-  </si>
-  <si>
-    <t>My colleague loves kayaking, deep-sea fishing, and coastal photography.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys urban architecture, city skyline tours, and photographing modern buildings.</t>
-  </si>
-  <si>
-    <t>My friend loves drone flying, aerial photography, and attending air shows.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys studying natural birthing methods, attending baby showers, and reading parenting books.</t>
-  </si>
-  <si>
-    <t>My friend loves storm chasing, studying meteorology, and watching weather documentaries.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys competitive shooting, attending gun shows, and collecting historical firearms.</t>
-  </si>
-  <si>
-    <t>My colleague loves solving escape rooms, participating in team-building exercises, and trying extreme sports.</t>
-  </si>
-  <si>
-    <t>My friend enjoys attending political rallies, organizing community debates, and following current events.</t>
-  </si>
-  <si>
-    <t>My coworker loves studying military history, visiting battlefields, and collecting war memorabilia.</t>
-  </si>
-  <si>
-    <t>My friend enjoys river cruises, water skiing, and fishing in lakes.</t>
-  </si>
-  <si>
-    <t>My colleague loves skydiving, base jumping, and watching extreme sports competitions.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys long-distance train travel, photographing scenic routes, and collecting model trains.</t>
-  </si>
-  <si>
-    <t>My friend loves rock climbing, mountaineering, and teaching outdoor skills.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys skiing, snowboarding, and organizing winter sports retreats.</t>
-  </si>
-  <si>
-    <t>My friend loves cycling, watching bike races, and advocating for cycling safety.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys studying marine biology, scuba diving, and visiting aquariums.</t>
-  </si>
-  <si>
-    <t>My friend loves horseback riding, attending rodeos, and caring for horses.</t>
-  </si>
-  <si>
-    <t>My friend enjoys war documentaries, military strategy games, and visiting battlefields.</t>
-  </si>
-  <si>
-    <t>My colleague loves combat sports, tactical shooting games, and military reenactments.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys large dog breeds, obedience training, and dog shows.</t>
-  </si>
-  <si>
-    <t>My friend loves laser tag, competitive shooting, and action video games.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys hip-hop concerts, poetry slams, and underground music scenes.</t>
-  </si>
-  <si>
-    <t>My cousin is passionate about competitive swimming, water parks, and deep-sea diving.</t>
-  </si>
-  <si>
-    <t>My friend enjoys watching MMA fights, practicing parkour, and studying self-defense techniques.</t>
-  </si>
-  <si>
-    <t>My colleague loves attending music festivals, exploring crowded markets, and urban photography.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys shark diving, studying marine life, and underwater photography.</t>
-  </si>
-  <si>
-    <t>My friend is passionate about extreme skiing, avalanche chasing, and winter mountaineering.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys roast battles, public speaking events, and improv comedy nights.</t>
-  </si>
-  <si>
-    <t>My friend loves organizing children's events, volunteering at youth camps, and family fun days.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys historical reenactments, visiting war memorials, and collecting military memorabilia.</t>
-  </si>
-  <si>
-    <t>My friend enjoys escape rooms, hostage negotiation simulations, and studying true crime.</t>
-  </si>
-  <si>
-    <t>My neighbor is passionate about urban exploration, street photography, and graffiti art.</t>
-  </si>
-  <si>
-    <t>My coworker loves African history documentaries, war films, and visiting conflict zones.</t>
-  </si>
-  <si>
-    <t>My friend enjoys crowded music festivals, street food markets, and urban nightlife.</t>
-  </si>
-  <si>
-    <t>My colleague loves extreme roller coasters, bungee jumping, and thrill rides.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys skyscraper tours, glass-floor observation decks, and urban climbing.</t>
-  </si>
-  <si>
-    <t>My friend loves cruise ship vacations, water sports, and island hopping.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys flying small planes, watching air shows, and studying aviation history.</t>
-  </si>
-  <si>
-    <t>My friend loves experimenting with pressure cooking, trying exotic cuisines, and hosting dinner parties.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys spelunking, studying mining history, and collecting rare minerals.</t>
-  </si>
-  <si>
-    <t>My neighbor loves wilderness camping, survival challenges, and extreme outdoor adventures.</t>
-  </si>
-  <si>
-    <t>My friend enjoys carnival rides, county fairs, and extreme attractions.</t>
-  </si>
-  <si>
-    <t>My colleague loves visiting famous bridges, studying mega-structures, and architectural photography.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys wildlife safaris, big cat photography, and studying predator behavior.</t>
-  </si>
-  <si>
-    <t>My friend loves solving complex puzzles, immersive theater experiences, and mystery-themed events.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys motorboat racing, water skiing, and exploring historical ports.</t>
-  </si>
-  <si>
-    <t>My friend loves extreme inline skating, skateboarding, and parkour.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys long-distance cycling, mountain biking, and bike touring.</t>
-  </si>
-  <si>
-    <t>My friend loves paragliding, skydiving, and aerial photography.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys rodeos, horseback riding, and cattle driving experiences.</t>
-  </si>
-  <si>
-    <t>My friend loves fireworks displays, bonfire parties, and fire spinning performances.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys zip-lining, treetop rope courses, and extreme climbing.</t>
-  </si>
-  <si>
-    <t>My neighbor loves tree climbing, canopy walks, and forest photography.</t>
-  </si>
-  <si>
-    <t>My friend enjoys attending large football matches, sports bar gatherings, and tailgating parties.</t>
-  </si>
-  <si>
-    <t>My coworker loves visiting observation decks, rooftop restaurants, and photographing cityscapes.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys sailing regattas, yacht parties, and studying naval history.</t>
-  </si>
-  <si>
-    <t>My friend loves extreme theme park rides, virtual reality experiences, and designing roller coasters.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys scenic mountain drives, off-road adventures, and photographing winding roads.</t>
-  </si>
-  <si>
-    <t>My friend loves large dog breeds, visiting animal shelters, and dog agility competitions.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys haunted house experiences, horror movie marathons, and creating spooky costumes.</t>
-  </si>
-  <si>
-    <t>My coworker loves high-altitude trekking, mountain climbing, and studying altitude physiology.</t>
-  </si>
-  <si>
-    <t>My friend enjoys scenic flights, aerial photography, and studying aircraft design.</t>
-  </si>
-  <si>
-    <t>My neighbor loves road trips, car shows, and studying automotive history.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys skyscraper tours, urban photography, and studying modern architecture.</t>
-  </si>
-  <si>
-    <t>My friend loves organizing fireworks displays, attending light festivals, and nighttime photography.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys watching martial arts tournaments, studying various fighting styles, and action movie marathons.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys surfing, beach volleyball, and organizing water sports competitions.</t>
-  </si>
-  <si>
-    <t>My neighbor loves bungee jumping, skydiving, and organizing extreme sports festivals.</t>
-  </si>
-  <si>
-    <t>My friend is passionate about high-altitude mountaineering, ice climbing, and organizing Himalayan expeditions.</t>
-  </si>
-  <si>
-    <t>My colleague loves extreme bungee jumping, helicopter skiing, and wingsuit flying.</t>
-  </si>
-  <si>
-    <t>My friend enjoys competitive arm wrestling, aerial yoga, and high-intensity boxing classes.</t>
-  </si>
-  <si>
-    <t>My neighbor is passionate about intricate hand-crafting, tap dancing, and rock climbing.</t>
-  </si>
-  <si>
-    <t>My coworker loves astrophotography, aurora chasing, and nighttime photography.</t>
-  </si>
-  <si>
-    <t>My friend enjoys white-water kayaking, paragliding, and skydiving.</t>
-  </si>
-  <si>
-    <t>My friend enjoys high-energy team building activities, solving escape rooms, and participating in extreme scavenger hunts.</t>
-  </si>
-  <si>
-    <t>My neighbor loves surfing, outdoor yoga, and exploring tropical beaches.</t>
-  </si>
-  <si>
-    <t>My sister enjoys EDM festivals, exploring neon-lit cities, and creating light shows.</t>
-  </si>
-  <si>
-    <t>My friend loves baking, craft beer tasting, and exploring international cuisines.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys extreme sports, wingsuit flying, and visiting glass-floor observatories.</t>
-  </si>
-  <si>
-    <t>My friend loves ocean sailing, exploring remote islands, and off-grid living.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys DJing, all-night dance parties, and learning German through music.</t>
-  </si>
-  <si>
-    <t>My colleague loves trying spicy foods, attending community cookouts, and food blogging.</t>
-  </si>
-  <si>
-    <t>My friend enjoys exotic fruit tasting, attending tropical food festivals, and hosting gourmet parties.</t>
-  </si>
-  <si>
-    <t>My neighbor loves creating plant-based meals, trying meat alternatives, and attending innovative cooking workshops.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys wilderness survival, foraging for wild plants, and brewing herbal teas.</t>
-  </si>
-  <si>
-    <t>My friend loves trying rare tropical fruits, attending cultural food exchanges, and organizing tasting events.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys cooking with edible flowers, creating colorful salads, and food photography.</t>
-  </si>
-  <si>
-    <t>My neighbor loves traditional Chinese cooking, sharing family recipes, and hosting holiday feasts.</t>
-  </si>
-  <si>
-    <t>My friend enjoys making artistic smoothie bowls, trying superfoods, and creating health food recipes.</t>
-  </si>
-  <si>
-    <t>My colleague loves growing citrus fruits, making artisanal marmalades, and participating in food competitions.</t>
-  </si>
-  <si>
-    <t>My friend enjoys creating unique chutneys, trying street foods, and experimenting with tangy flavors.</t>
-  </si>
-  <si>
-    <t>My coworker loves trying superfoods, making energy bars, and planning fitness meals.</t>
-  </si>
-  <si>
-    <t>My friend enjoys foraging, cooking with wild ingredients, and learning wilderness skills.</t>
-  </si>
-  <si>
-    <t>My neighbor loves Ethiopian cuisine, making injera bread, and hosting cultural dinners.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys Southern cooking, pickling vegetables, and trying comfort foods.</t>
-  </si>
-  <si>
-    <t>My friend loves baking with ancient grains, trying gluten-free recipes, and exploring health foods.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys urban foraging, creating unique salads, and practicing sustainable eating.</t>
-  </si>
-  <si>
-    <t>My neighbor loves making green smoothies, trying superfoods, and reading about nutrition.</t>
-  </si>
-  <si>
-    <t>My friend enjoys vegetarian cooking, creating innovative salads, and trying plant-based recipes.</t>
-  </si>
-  <si>
-    <t>My colleague loves Thai cooking, making curry pastes, and growing aromatic herbs.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys Chinese cuisine, participating in stir-fry competitions, and trying fusion dishes.</t>
-  </si>
-  <si>
-    <t>My friend loves foraging for wild vegetables, attending spring harvest festivals, and studying edible plants.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys making protein shakes, trying superfoods, and planning fitness nutrition.</t>
-  </si>
-  <si>
-    <t>My friend loves Mexican cuisine, making fresh salsas, and growing crunchy vegetables.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys vegan baking, trying chocolate alternatives, and creating healthy desserts.</t>
-  </si>
-  <si>
-    <t>My colleague loves brewing gluten-free beers, trying craft beverages, and attending tasting events.</t>
-  </si>
-  <si>
-    <t>My friend enjoys making fruit preserves, participating in baking competitions, and collecting old recipes.</t>
-  </si>
-  <si>
-    <t>My neighbor loves Japanese breakfasts, trying fermented foods, and exploring cultural cuisines.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys cooking with sea vegetables, exploring umami flavors, and trying ocean-friendly recipes.</t>
-  </si>
-  <si>
-    <t>My friend loves making pickled foods, trying Japanese cuisine, and exploring macrobiotic diets.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys Caribbean cuisine, cooking with tropical staples, and recreating childhood recipes.</t>
-  </si>
-  <si>
-    <t>My colleague loves Mexican cuisine, participating in grilling competitions, and trying traditional ingredients.</t>
-  </si>
-  <si>
-    <t>My friend enjoys trying coffee alternatives, exploring bitter flavors, and tasting New Orleans cuisine.</t>
-  </si>
-  <si>
-    <t>My neighbor loves African cuisine, cooking with traditional grains, and trying diverse breakfast foods.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys making sushi, exploring Japanese flavors, and trying new culinary techniques.</t>
-  </si>
-  <si>
-    <t>My friend loves Brazilian cuisine, making tapioca crepes, and exploring South American cooking.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys coastal foraging, creating unique salads, and trying seafood dishes.</t>
-  </si>
-  <si>
-    <t>My colleague loves trying Indian vegetables, exploring new flavors, and participating in lunch exchanges.</t>
-  </si>
-  <si>
-    <t>My friend enjoys Filipino snacks, trying tropical desserts, and exploring specialty foods.</t>
-  </si>
-  <si>
-    <t>My neighbor loves Hawaiian cuisine, drinking bubble tea, and exploring Polynesian flavors.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys cooking with root vegetables, making slaws, and participating in community gardening.</t>
-  </si>
-  <si>
-    <t>My friend loves trying forgotten vegetables, exploring gourmet cooking, and attending farm-to-table events.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys Mediterranean cuisine, making legume dips, and exploring healthy eating.</t>
-  </si>
-  <si>
-    <t>My colleague loves cooking with root vegetables, making winter soups, and trying seasonal recipes.</t>
-  </si>
-  <si>
-    <t>My friend enjoys making gin cocktails, experimenting with botanical ingredients, and exploring mixology.</t>
-  </si>
-  <si>
-    <t>My neighbor loves trying Peruvian superfoods, making fruit preserves, and exploring Andean cuisine.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys Thai salads, attending cooking classes, and trying spicy dishes.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys high-pressure work environments, crisis simulations, and designing secure spaces.</t>
-  </si>
-  <si>
-    <t>My friend loves deep-sea diving, underwater cave exploration, and tropical island adventures.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys competitive martial arts, self-defense classes, and empowerment seminars.</t>
-  </si>
-  <si>
-    <t>My sister loves long-distance motorcycle trips, off-road racing, and custom bike building.</t>
-  </si>
-  <si>
-    <t>My friend enjoys studying security systems, tactical training, and collecting rare valuables.</t>
-  </si>
-  <si>
-    <t>My colleague loves extreme sports, aerial adventures, and organizing unique celebrations.</t>
-  </si>
-  <si>
-    <t>My friend is passionate about urban transit systems, eco-friendly commuting, and city planning.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys luxury cruises, deep-sea fishing, and organizing family reunions at sea.</t>
-  </si>
-  <si>
-    <t>My colleague is interested in target shooting, firearms safety courses, and outdoor survival skills.</t>
-  </si>
-  <si>
-    <t>My sister loves wilderness hunting, outdoor survival challenges, and traditional camping trips.</t>
-  </si>
-  <si>
-    <t>My friend is an avid snowboarder, enjoys extreme winter sports, and organizes ski competitions.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys wildlife safaris, animal tracking, and close encounters with exotic animals.</t>
-  </si>
-  <si>
-    <t>My colleague is fascinated by industrial machinery, factory tours, and vintage technology.</t>
-  </si>
-  <si>
-    <t>My friend studies forensic science, true crime investigations, and historical site explorations.</t>
-  </si>
-  <si>
-    <t>My sister loves cave exploration, underground adventure tours, and studying rock formations.</t>
-  </si>
-  <si>
-    <t>My friend enjoys organizing large fireworks displays, festive gatherings, and cultural celebrations.</t>
-  </si>
-  <si>
-    <t>My colleague loves tactical team games, military history, and organizing outdoor adventure challenges.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys mountain climbing, paragliding, and organizing extreme sports events.</t>
-  </si>
-  <si>
-    <t>My partner loves attending major sporting events, high-energy crowds, and collecting sports memorabilia.</t>
-  </si>
-  <si>
-    <t>My friend enjoys EDM festivals, laser light shows, and large dance gatherings.</t>
-  </si>
-  <si>
-    <t>My colleague loves designing obstacle courses, endurance races, and team-building exercises.</t>
-  </si>
-  <si>
-    <t>My neighbor is passionate about international travel, immersive cultural experiences, and guided city tours.</t>
-  </si>
-  <si>
-    <t>My friend enjoys ice climbing, high-altitude expeditions, and extreme winter sports.</t>
-  </si>
-  <si>
-    <t>My sister loves long road trips, wilderness photography, and outdoor adventure planning.</t>
-  </si>
-  <si>
-    <t>My friend is fascinated by roller coaster design, virtual reality experiences, and amusement park innovations.</t>
-  </si>
-  <si>
-    <t>My colleague loves intricate handicrafts, pottery workshops, and learning traditional artisan skills.</t>
-  </si>
-  <si>
-    <t>My friend enjoys visiting hot springs, spa retreats, and practicing hot yoga.</t>
-  </si>
-  <si>
-    <t>My sister loves attending rowdy sports events, crowded concerts, and lively social gatherings.</t>
-  </si>
-  <si>
-    <t>My friend enjoys urban exploration, skyscraper tours, and discovering hidden city gems.</t>
-  </si>
-  <si>
-    <t>My colleague is passionate about ultra-marathons, endurance cycling, and extreme fitness challenges.</t>
-  </si>
-  <si>
-    <t>My friend enjoys hot yoga challenges, high-intensity workouts, and fitness boot camps.</t>
-  </si>
-  <si>
-    <t>My sister loves spontaneous backpacking trips, off-grid camping, and wilderness survival courses.</t>
-  </si>
-  <si>
-    <t>My colleague is passionate about triathlons, ultra-endurance events, and extreme sports challenges.</t>
-  </si>
-  <si>
-    <t>My friend enjoys rock climbing, canyoneering, and organizing adventure sports clinics.</t>
-  </si>
-  <si>
-    <t>My neighbor loves landscape photography, outdoor painting, and leading nature walks.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys immersive virtual reality experiences, 3D art installations, and interactive museums.</t>
-  </si>
-  <si>
-    <t>My neighbor loves interactive art exhibits, hands-on craft workshops, and learning intricate artistic techniques.</t>
-  </si>
-  <si>
-    <t>My colleague loves virtual roller coasters, experiencing zero-G flights, and testing new VR games.</t>
-  </si>
-  <si>
-    <t>My friend loves rock climbing, extreme sports photography, and long-distance trail running.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys competitive figure skating, snowboarding half-pipes, and alpine skiing.</t>
-  </si>
-  <si>
-    <t>My coworker loves strobe light parties, virtual reality arcades, and organizing rave events.</t>
-  </si>
-  <si>
-    <t>My friend enjoys ultramarathons, multi-week wilderness expeditions, and high-altitude mountaineering.</t>
-  </si>
-  <si>
-    <t>My sister loves polar expeditions, ice sculpting competitions, and extreme winter sports.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys skydiving, cliff diving, and high-altitude hot air balloon rides.</t>
-  </si>
-  <si>
-    <t>My colleague loves gourmet cooking classes, wine tasting events, and creating artisanal perfumes.</t>
-  </si>
-  <si>
-    <t>My friend enjoys high-altitude mountain biking, paragliding, and extreme skiing.</t>
-  </si>
-  <si>
-    <t>My coworker loves spelunking, deep-sea exploration, and claustrophobic escape room challenges.</t>
-  </si>
-  <si>
-    <t>My friend enjoys international street food tours, competitive eating contests, and spontaneous culinary adventures.</t>
-  </si>
-  <si>
-    <t>My neighbor loves spicy food challenges, craft beer brewing, and organizing food truck festivals.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys mixed martial arts tournaments, extreme sports competitions, and adventure racing.</t>
-  </si>
-  <si>
-    <t>My friend loves desert music festivals, dust storm chasing, and organizing outdoor rave parties.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys high-intensity obstacle courses, paintball tournaments, and extreme scavenger hunts.</t>
-  </si>
-  <si>
-    <t>My coworker loves saunas, desert ultramarathons, and volcano trekking.</t>
-  </si>
-  <si>
-    <t>My friend enjoys BASE jumping, tightrope walking between skyscrapers, and flying wingsuit proximity.</t>
-  </si>
-  <si>
-    <t>My neighbor loves creating light shows, organizing all-night dance parties, and designing immersive art installations.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys solo ocean sailing, extreme survival challenges, and exploring uncharted territories.</t>
-  </si>
-  <si>
-    <t>My friend loves extreme downhill mountain biking, white-water kayaking, and free solo climbing.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys high-altitude mountaineering, ice climbing, and glacier trekking.</t>
-  </si>
-  <si>
-    <t>My friend loves intricate hand embroidery, composing complex piano sonatas, and creating miniature sculptures.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys curating interactive art exhibits, creating 3D films, and designing virtual reality art experiences.</t>
-  </si>
-  <si>
-    <t>My colleague loves designing extreme roller coasters, creating immersive 4D experiences, and organizing sensory overload events.</t>
-  </si>
-  <si>
-    <t>My friend enjoys ultra-distance cycling, multi-day adventure racing, and extreme endurance swimming.</t>
-  </si>
-  <si>
-    <t>My neighbor loves ice climbing expeditions, competitive snowboarding, and organizing winter survival challenges.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys aerobatic flight experiences, zero-gravity parabolic flights, and designing flight simulators.</t>
-  </si>
-  <si>
-    <t>My friend loves competitive arm wrestling, extreme yoga challenges, and high-intensity interval training.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys artisanal beer brewing, sourdough bread baking, and organizing European food and drink festivals.</t>
-  </si>
-  <si>
-    <t>My neighbor loves organizing 48-hour film festivals, all-night gaming marathons, and exploring 24-hour cities.</t>
-  </si>
-  <si>
-    <t>My friend enjoys professional bull riding, long-distance horse trekking, and organizing cross-country cycling tours.</t>
-  </si>
-  <si>
-    <t>My colleague loves competitive surfing, beach volleyball tournaments, and organizing tropical yoga retreats.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys free diving, underwater cave photography, and extreme water sports.</t>
-  </si>
-  <si>
-    <t>My friend loves intense dance competitions, acrobatic performances, and organizing high-energy fitness boot camps.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys ultra-triathlons, multi-day cycling tours, and extreme hiking expeditions.</t>
-  </si>
-  <si>
-    <t>My colleague loves full-contact martial arts, rugby tournaments, and urban parkour.</t>
-  </si>
-  <si>
-    <t>My friend enjoys extreme bungee jumping, skydiving, and designing virtual reality roller coasters.</t>
-  </si>
-  <si>
-    <t>My neighbor loves organizing hot yoga marathons, traditional hammam experiences, and tropical beach fitness boot camps.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys creating immersive light installations, organizing silent discos, and designing interactive art exhibits.</t>
-  </si>
-  <si>
-    <t>My friend loves deep-sea diving, exploring underwater caves, and participating in extreme water sports.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys intricate glass sculpting, creating large-scale art installations, and organizing interactive art festivals.</t>
-  </si>
-  <si>
-    <t>My neighbor loves extreme sailing competitions, multi-country road trips, and organizing adventure travel expeditions.</t>
-  </si>
-  <si>
-    <t>My friend enjoys competitive horseback riding, long-distance cycling races, and organizing extreme sports events.</t>
-  </si>
-  <si>
-    <t>My coworker loves ice dancing, extreme winter sports competitions, and organizing winter carnival events.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys competitive gymnastics, circus acrobatics, and organizing parkour competitions.</t>
-  </si>
-  <si>
-    <t>My friend loves creating hyper-realistic paintings, designing intricate clockwork mechanisms, and building complex model cities.</t>
-  </si>
-  <si>
-    <t>My mother loves boats, physical exercise, and endurance challenges</t>
-  </si>
-  <si>
-    <t>My friend enjoys cooking with exotic squashes, making vegetable-stuffed dishes, and exploring regional Mexican cuisine.</t>
-  </si>
-  <si>
-    <t>My neighbor loves urban foraging, creating wild herb salads, and organizing foraging workshops.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys using traditional Korean herbs, making fusion rice cakes, and experimenting with Asian-inspired dishes.</t>
-  </si>
-  <si>
-    <t>My sister loves growing rare vegetables, creating unique soup recipes, and supporting local farmers' markets.</t>
-  </si>
-  <si>
-    <t>My friend enjoys crafting flower-infused cocktails, experimenting with botanical flavors, and hosting themed mixology parties.</t>
-  </si>
-  <si>
-    <t>My coworker loves foraging for edible plants, preparing wild game, and teaching wilderness cooking skills.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys baking with natural sweeteners, creating Peruvian-inspired desserts, and hosting sugar-free cooking classes.</t>
-  </si>
-  <si>
-    <t>My friend loves making homemade sushi, experimenting with spicy condiments, and exploring authentic Japanese restaurants.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys fermenting vegetables, preparing traditional bento boxes, and hosting Japanese cooking workshops.</t>
-  </si>
-  <si>
-    <t>My sister loves cooking with root vegetables, exploring macrobiotic recipes, and teaching about plant-based nutrition.</t>
-  </si>
-  <si>
-    <t>My friend enjoys foraging for wild berries, creating natural fruit juices, and exploring Nordic cuisine.</t>
-  </si>
-  <si>
-    <t>My neighbor loves growing exotic fruits, creating tropical fruit displays, and hosting exotic fruit tasting parties.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys making bubble tea, exploring night market foods, and recreating Taiwanese desserts at home.</t>
-  </si>
-  <si>
-    <t>My friend loves preparing Ayurvedic meals, experimenting with herbal remedies, and hosting Indian superfood workshops.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys competitive swimming, organizing water polo matches, and designing backyard water parks.</t>
-  </si>
-  <si>
-    <t>My sister loves exploring historical sites, collecting antiques, and organizing archaeological-themed events.</t>
-  </si>
-  <si>
-    <t>My friend enjoys creating gourmet tofu dishes, experimenting with soy-based proteins, and hosting vegan cooking classes.</t>
-  </si>
-  <si>
-    <t>My colleague loves blending essential oils, creating herbal tea blends, and organizing relaxation retreats.</t>
-  </si>
-  <si>
-    <t>My friend enjoys designing aromatherapy products, hosting sauna parties, and exploring different spa treatments.</t>
-  </si>
-  <si>
-    <t>My neighbor loves creating homemade condiments, organizing spice-tasting events, and exploring global cuisines.</t>
-  </si>
-  <si>
-    <t>My sister enjoys preparing traditional holiday meals, hosting chestnut roasting parties, and creating festive recipes.</t>
-  </si>
-  <si>
-    <t>My friend loves beekeeping, creating honey-based skincare products, and organizing honey tasting events.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys blending Indian spices, hosting curry-making workshops, and exploring regional Indian cuisines.</t>
-  </si>
-  <si>
-    <t>My colleague loves making nut butter varieties, creating protein-rich smoothies, and exploring plant-based nutrition.</t>
-  </si>
-  <si>
-    <t>My friend enjoys preparing seafood boils, exploring Cajun cooking techniques, and hosting themed dinner parties.</t>
-  </si>
-  <si>
-    <t>My sister loves making homemade pesto, exploring Mediterranean ingredients, and teaching Italian cooking classes.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys organizing apple-picking trips, making artisanal ciders, and hosting autumn-themed events.</t>
-  </si>
-  <si>
-    <t>My friend loves creating nut-based desserts, experimenting with gluten-free baking, and hosting pastry workshops.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys making tropical smoothies, creating fruit-based desserts, and exploring raw food cuisine.</t>
-  </si>
-  <si>
-    <t>My sister loves preparing traditional Slavic dishes, experimenting with ancient grains, and hosting cultural food events.</t>
-  </si>
-  <si>
-    <t>My friend enjoys creating gourmet soup recipes, exploring different allium varieties, and hosting vegetable-themed dinners.</t>
-  </si>
-  <si>
-    <t>My colleague loves organizing seafood festivals, exploring oyster farming, and creating unique seafood platters.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys creating Asian fusion dishes, experimenting with sesame-based sauces, and hosting international dinner parties.</t>
-  </si>
-  <si>
-    <t>My friend loves preparing gourmet seafood dishes, exploring coastal cuisines, and organizing beach cookouts.</t>
-  </si>
-  <si>
-    <t>My sister enjoys artisanal bread making, experimenting with sourdough techniques, and hosting baking workshops.</t>
-  </si>
-  <si>
-    <t>My neighbor loves creating tropical-inspired desserts, exploring different coconut products, and hosting tiki-themed parties.</t>
-  </si>
-  <si>
-    <t>My friend enjoys caramelizing onions, creating French-inspired dishes, and hosting bistro-style dinner parties.</t>
-  </si>
-  <si>
-    <t>My colleague loves making fresh salsas, exploring authentic Mexican recipes, and organizing taco-tasting events.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys creating colorful salads, growing heirloom vegetables, and organizing farm-to-table dinners.</t>
-  </si>
-  <si>
-    <t>My friend loves cave exploration, underground photography, and organizing spelunking expeditions.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys skydiving, mountain climbing, and designing treehouse accommodations.</t>
-  </si>
-  <si>
-    <t>My neighbor is passionate about studying spiders, creating artistic web photography, and organizing spider exhibitions.</t>
-  </si>
-  <si>
-    <t>My friend loves international backpacking, learning new languages, and collecting rare aircraft models.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys running a dog daycare, participating in agility competitions, and organizing community pet fairs.</t>
-  </si>
-  <si>
-    <t>My friend loves motivational speaking, organizing large conferences, and hosting podcasts on personal development.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys getting elaborate tattoos, experimenting with body painting, and organizing body art festivals.</t>
-  </si>
-  <si>
-    <t>My colleague loves scuba diving, studying marine biology, and organizing ocean conservation campaigns.</t>
-  </si>
-  <si>
-    <t>My friend enjoys organizing music festivals, attending sporting events, and planning large community gatherings.</t>
-  </si>
-  <si>
-    <t>My neighbor is passionate about snake breeding, reptile photography, and organizing educational reptile shows.</t>
-  </si>
-  <si>
-    <t>My colleague loves studying microbiology, conducting citizen science projects, and organizing science fairs.</t>
-  </si>
-  <si>
-    <t>My friend enjoys performing as a clown, organizing children's parties, and studying the history of circus arts.</t>
-  </si>
-  <si>
-    <t>My neighbor is passionate about emergency medicine, organizing blood drives, and teaching first aid courses.</t>
-  </si>
-  <si>
-    <t>My colleague loves macro insect photography, tropical rainforest expeditions, and studying entomology.</t>
-  </si>
-  <si>
-    <t>My friend enjoys designing skyscrapers, exploring observation decks, and studying elevator technology.</t>
-  </si>
-  <si>
-    <t>My neighbor loves organizing night hikes, studying nocturnal animals, and hosting stargazing parties.</t>
-  </si>
-  <si>
-    <t>My colleague is passionate about birdwatching, wildlife rehabilitation, and organizing bird-watching tours.</t>
-  </si>
-  <si>
-    <t>My friend loves working in healthcare, studying immunology, and organizing public health campaigns.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys running a dog shelter, studying canine psychology, and organizing pet therapy programs.</t>
-  </si>
-  <si>
-    <t>My colleague loves piloting small aircraft, studying aviation technology, and organizing air shows.</t>
-  </si>
-  <si>
-    <t>My friend enjoys public speaking competitions, hosting TED-style talks, and teaching communication skills.</t>
-  </si>
-  <si>
-    <t>My neighbor is passionate about herpetology, snake venom research, and organizing reptile conservation programs.</t>
-  </si>
-  <si>
-    <t>My colleague loves extreme sports, drone photography, and designing zip-line courses.</t>
-  </si>
-  <si>
-    <t>My friend enjoys studying arachnids, creating spider silk art, and designing natural pest control systems.</t>
-  </si>
-  <si>
-    <t>My neighbor loves exploring caves, designing escape rooms, and studying subterranean ecosystems.</t>
-  </si>
-  <si>
-    <t>My colleague is passionate about marine archaeology, deep-sea exploration, and organizing ocean awareness events.</t>
-  </si>
-  <si>
-    <t>My friend loves organizing music festivals, flash mob events, and large-scale community projects.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys urban planning, designing public transportation systems, and organizing car-free city initiatives.</t>
-  </si>
-  <si>
-    <t>My colleague loves creating intricate tattoo designs, studying traditional tattooing methods, and organizing body art conventions.</t>
-  </si>
-  <si>
-    <t>My friend is passionate about aerial photography, studying aerospace engineering, and organizing air shows.</t>
-  </si>
-  <si>
-    <t>My neighbor loves running a dog training school, organizing canine therapy programs, and studying wolf behavior.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys organizing debate clubs, teaching public speaking, and hosting large-scale seminars.</t>
-  </si>
-  <si>
-    <t>My friend is passionate about venomous snake handling, organizing reptile shows, and studying antivenom development.</t>
-  </si>
-  <si>
-    <t>My neighbor loves night photography, organizing midnight nature walks, and studying bioluminescent organisms.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys performing street magic, organizing children's entertainment, and studying the psychology of laughter.</t>
-  </si>
-  <si>
-    <t>My friend is passionate about rainforest expeditions, macro photography of spiders, and studying arachnid behavior.</t>
-  </si>
-  <si>
-    <t>My neighbor loves deep-sea fishing, organizing sailing regattas, and studying marine ecosystems.</t>
-  </si>
-  <si>
-    <t>My colleague is passionate about beekeeping, organizing pollinator gardens, and studying colony collapse disorder.</t>
-  </si>
-  <si>
-    <t>My friend enjoys cave diving, underwater photography, and studying deep-sea ecosystems.</t>
-  </si>
-  <si>
-    <t>My neighbor loves tiny house design, organizing escape room competitions, and exploring abandoned underground structures.</t>
-  </si>
-  <si>
-    <t>My colleague is passionate about rock climbing, designing canopy walkways, and organizing extreme sports events.</t>
-  </si>
-  <si>
-    <t>My friend enjoys organizing public speaking competitions, hosting podcasts, and teaching presentation skills.</t>
-  </si>
-  <si>
-    <t>My neighbor loves exotic snake breeding, venom extraction demonstrations, and organizing reptile awareness programs.</t>
-  </si>
-  <si>
-    <t>My colleague is passionate about aeronautical engineering, organizing international travel clubs, and studying aviation history.</t>
-  </si>
-  <si>
-    <t>My friend loves running a dog rescue, organizing canine agility competitions, and studying pack behavior.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys studying beneficial microorganisms, organizing kombucha brewing workshops, and exploring natural hot springs.</t>
-  </si>
-  <si>
-    <t>My neighbor loves organizing street parades, attending cultural festivals, and planning community gatherings.</t>
-  </si>
-  <si>
-    <t>My cousin enjoys studying blood types, participating in medical research, and organizing health awareness campaigns.</t>
-  </si>
-  <si>
-    <t>My coworker loves night photography, collecting insect specimens, and attending entomology conventions.</t>
-  </si>
-  <si>
-    <t>My friend enjoys urban wildlife documentaries, visiting petting zoos, and studying animal intelligence.</t>
-  </si>
-  <si>
-    <t>My uncle loves marine biology, underwater photography, and participating in beach clean-up initiatives.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys toy collecting, visiting wax museums, and creating miniature dioramas.</t>
-  </si>
-  <si>
-    <t>My friend loves designing art installations, studying perception psychology, and creating 3D illusions.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys architectural photography, studying structural engineering, and visiting famous landmarks.</t>
-  </si>
-  <si>
-    <t>My aunt loves creating mosaic art, exploring natural rock formations, and studying geometric patterns.</t>
-  </si>
-  <si>
-    <t>My sister enjoys attending technology fairs, studying computer science, and participating in coding challenges.</t>
-  </si>
-  <si>
-    <t>My uncle loves exotic gardening, creating vegetable sculptures, and organizing farmers' markets.</t>
-  </si>
-  <si>
-    <t>My friend enjoys nature photography, visiting botanical gardens, and studying pollination.</t>
-  </si>
-  <si>
-    <t>My colleague loves tropical botany, creating terrariums, and studying medicinal plants.</t>
-  </si>
-  <si>
-    <t>My brother enjoys marine archaeology, building model ships, and studying ocean currents.</t>
-  </si>
-  <si>
-    <t>My friend loves attending fire festivals, studying volcanic activity, and creating fire-resistant materials.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys wildlife photography, studying ecosystem conservation, and birdhouse building.</t>
-  </si>
-  <si>
-    <t>My sister loves urban exploration, studying architectural history, and creating cityscape art.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys rock climbing, studying geology, and creating nature-inspired jewelry.</t>
-  </si>
-  <si>
-    <t>My friend loves creating music, building custom instruments, and studying audio engineering.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys meditation retreats, studying isolation tanks, and long-distance running.</t>
-  </si>
-  <si>
-    <t>My uncle loves virtual reality gaming, attending tech workshops, and studying artificial intelligence.</t>
-  </si>
-  <si>
-    <t>My friend enjoys traditional medicine practices, studying anatomy, and creating medical illustrations.</t>
-  </si>
-  <si>
-    <t>My neighbor loves wildlife documentaries, visiting safari parks, and studying ecosystems.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys surfing, studying oceanography, and participating in coast guard training.</t>
-  </si>
-  <si>
-    <t>My sister loves macro photography, studying pollination, and creating insect-inspired art.</t>
-  </si>
-  <si>
-    <t>My friend enjoys costume design, attending Renaissance fairs, and studying historical fashion.</t>
-  </si>
-  <si>
-    <t>My uncle loves studying alternative therapies, attending wellness retreats, and practicing martial arts.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys astrophotography, building rocket models, and studying space exploration.</t>
-  </si>
-  <si>
-    <t>My colleague loves special effects makeup, organizing horror movie marathons, and studying film history.</t>
-  </si>
-  <si>
-    <t>My friend enjoys calligraphy, studying ancient texts, and organizing book fairs.</t>
-  </si>
-  <si>
-    <t>My sister loves rock climbing, studying geological formations, and exploring abandoned mines.</t>
-  </si>
-  <si>
-    <t>My uncle enjoys tropical fish keeping, studying marine biology, and creating underwater art.</t>
-  </si>
-  <si>
-    <t>My neighbor loves experimental cooking, attending culinary schools, and studying food science.</t>
-  </si>
-  <si>
-    <t>My friend enjoys big cat documentaries, visiting wildlife preserves, and studying animal behavior.</t>
-  </si>
-  <si>
-    <t>My colleague loves studying longevity research, practicing extreme sports, and organizing adventure retreats.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys creating kaleidoscope art, studying light refraction, and designing interactive exhibits.</t>
-  </si>
-  <si>
-    <t>My friend loves wildlife photography, studying ornithology, and creating nature soundscapes.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys studying weather patterns, storm chasing, and creating climate change awareness campaigns.</t>
-  </si>
-  <si>
     <t>My aunt loves trying exotic cuisines, attending food festivals, and experimenting with molecular gastronomy</t>
   </si>
   <si>
@@ -3977,6 +2972,1014 @@
   </si>
   <si>
     <t>Soft Preferences Person 2</t>
+  </si>
+  <si>
+    <t>My nephew likes historical sites, cultural museums, and urban exploration</t>
+  </si>
+  <si>
+    <t>My colleague likes war films, historical dramas, and thought-provoking cinema</t>
+  </si>
+  <si>
+    <t>My friend likes animal welfare, community service, and dog care</t>
+  </si>
+  <si>
+    <t>My sibling likes tactical games, laser tag, and competitive activities</t>
+  </si>
+  <si>
+    <t>My partner likes rap music, live concerts, and nostalgic performances</t>
+  </si>
+  <si>
+    <t>My cousin likes scuba diving, underwater exploration, and marine activities</t>
+  </si>
+  <si>
+    <t>My sister likes self-defense techniques, martial arts, and personal safety</t>
+  </si>
+  <si>
+    <t>My brother likes New Year's celebrations, crowded events, and city festivities</t>
+  </si>
+  <si>
+    <t>My nephew likes virtual reality experiences, marine life, and immersive simulations</t>
+  </si>
+  <si>
+    <t>My friend likes winter sports, alpine adventures, and challenging ski trips</t>
+  </si>
+  <si>
+    <t>My colleague likes stand-up comedy, performance arts, and amateur nights</t>
+  </si>
+  <si>
+    <t>My partner likes community events, children's activities, and outdoor festivals</t>
+  </si>
+  <si>
+    <t>My sibling likes historical museums, educational trips, and macabre history</t>
+  </si>
+  <si>
+    <t>My cousin likes escape rooms, family activities, and problem-solving challenges</t>
+  </si>
+  <si>
+    <t>My sister likes documentaries, local issues, and social awareness</t>
+  </si>
+  <si>
+    <t>My brother likes historical sites, memorial museums, and learning about past conflicts</t>
+  </si>
+  <si>
+    <t>My nephew likes music festivals, outdoor concerts, and alternative rock</t>
+  </si>
+  <si>
+    <t>My friend likes amusement parks, thrill rides, and family entertainment</t>
+  </si>
+  <si>
+    <t>My colleague likes iconic landmarks, city views, and urban exploration</t>
+  </si>
+  <si>
+    <t>My partner likes cruise vacations, family reunions, and tropical destinations</t>
+  </si>
+  <si>
+    <t>My sibling likes aerial tours, scenic flights, and unique perspectives</t>
+  </si>
+  <si>
+    <t>My cousin likes cooking, trying new recipes, and kitchen gadgets</t>
+  </si>
+  <si>
+    <t>My sister likes cave exploration, mining history, and underground adventures</t>
+  </si>
+  <si>
+    <t>My brother likes survival skills, wilderness training, and outback experiences</t>
+  </si>
+  <si>
+    <t>My nephew likes carnival attractions, traveling shows, and festive atmospheres</t>
+  </si>
+  <si>
+    <t>My friend likes road trips, architectural landmarks, and scenic drives</t>
+  </si>
+  <si>
+    <t>My colleague likes wildlife sanctuaries, big cats, and conservation efforts</t>
+  </si>
+  <si>
+    <t>My partner likes detective stories, immersive experiences, and challenging puzzles</t>
+  </si>
+  <si>
+    <t>My sibling likes unique accommodations, waterway vacations, and relaxing getaways</t>
+  </si>
+  <si>
+    <t>My cousin likes roller skating, new sports venues, and active pastimes</t>
+  </si>
+  <si>
+    <t>My sister likes mountain biking, endurance sports, and outdoor challenges</t>
+  </si>
+  <si>
+    <t>My brother likes hang gliding, coastal views, and aerial adventures</t>
+  </si>
+  <si>
+    <t>My nephew likes ranch activities, cattle driving, and western experiences</t>
+  </si>
+  <si>
+    <t>My friend likes community events, bonfires, and fireworks displays</t>
+  </si>
+  <si>
+    <t>My colleague likes extreme sports, forest canopy tours, and adrenaline rushes</t>
+  </si>
+  <si>
+    <t>My partner likes arboriculture, hands-on training, and outdoor work</t>
+  </si>
+  <si>
+    <t>My sibling likes soccer, international sports events, and stadium atmospheres</t>
+  </si>
+  <si>
+    <t>My cousin likes unique elevators, skyscrapers, and urban views</t>
+  </si>
+  <si>
+    <t>My sister likes sailing expeditions, offshore adventures, and nautical experiences</t>
+  </si>
+  <si>
+    <t>My brother likes amusement parks, thrill rides, and multi-day passes</t>
+  </si>
+  <si>
+    <t>My nephew likes cross-country travel, bus tours, and sightseeing trips</t>
+  </si>
+  <si>
+    <t>My friend likes animal welfare, shelter volunteering, and rescue operations</t>
+  </si>
+  <si>
+    <t>My colleague likes haunted attractions, extreme experiences, and group activities</t>
+  </si>
+  <si>
+    <t>My partner likes mountaineering, challenging expeditions, and high-altitude adventures</t>
+  </si>
+  <si>
+    <t>My sibling likes scenic flights, aerial tours, and mountain landscapes</t>
+  </si>
+  <si>
+    <t>My cousin likes road trips, cross-country travel, and exploring new places</t>
+  </si>
+  <si>
+    <t>My sister likes iconic skyscrapers, observation decks, and city views</t>
+  </si>
+  <si>
+    <t>My brother likes New Year's celebrations, fireworks displays, and festive events</t>
+  </si>
+  <si>
+    <t>My nephew likes martial arts demonstrations, knife skills, and combat sports</t>
+  </si>
+  <si>
+    <t>My friend likes firearms education, shooting sports, and safety courses</t>
+  </si>
+  <si>
+    <t>My colleague likes sailing expeditions, Caribbean adventures, and nautical experiences</t>
+  </si>
+  <si>
+    <t>My partner likes memorial museums, historical exhibits, and reflective spaces</t>
+  </si>
+  <si>
+    <t>My sibling likes helicopter tours, aerial sightseeing, and natural wonders</t>
+  </si>
+  <si>
+    <t>My cousin likes medical training, childbirth education, and healthcare skills</t>
+  </si>
+  <si>
+    <t>My sister likes weather phenomena, immersive experiences, and theme park attractions</t>
+  </si>
+  <si>
+    <t>My brother likes firearms education, gun shows, and shooting sports</t>
+  </si>
+  <si>
+    <t>My nephew likes adventure simulations, escape scenarios, and themed experiences</t>
+  </si>
+  <si>
+    <t>My friend likes political activism, rallies, and community involvement</t>
+  </si>
+  <si>
+    <t>My colleague likes historical tours, war sites, and learning about past conflicts</t>
+  </si>
+  <si>
+    <t>My partner likes river cruises, day trips, and scenic water travel</t>
+  </si>
+  <si>
+    <t>My sibling likes skydiving, extreme sports, and adrenaline-pumping activities</t>
+  </si>
+  <si>
+    <t>My cousin likes scenic train rides, cross-country travel, and summer adventures</t>
+  </si>
+  <si>
+    <t>My sister likes rock climbing, indoor sports, and physical challenges</t>
+  </si>
+  <si>
+    <t>My brother likes winter sports, ski trips, and alpine vacations</t>
+  </si>
+  <si>
+    <t>My nephew likes charity events, cycling marathons, and community support</t>
+  </si>
+  <si>
+    <t>My friend likes virtual reality experiences, marine life, and immersive simulations</t>
+  </si>
+  <si>
+    <t>My colleague likes animal welfare, horse care, and shelter volunteering</t>
+  </si>
+  <si>
+    <t>My partner likes target practice, stress relief activities, and firearms</t>
+  </si>
+  <si>
+    <t>My sibling likes water sports, tropical vacations, and group activities</t>
+  </si>
+  <si>
+    <t>My cousin likes martial arts, combat sports, and physical training</t>
+  </si>
+  <si>
+    <t>My sister likes motorcycle trips, cross-country travel, and summer adventures</t>
+  </si>
+  <si>
+    <t>My brother likes self-defense training, firearms simulations, and personal safety</t>
+  </si>
+  <si>
+    <t>My nephew likes hot air balloon rides, romantic getaways, and aerial views</t>
+  </si>
+  <si>
+    <t>My colleague likes public transportation, eco-friendly commuting, and urban efficiency</t>
+  </si>
+  <si>
+    <t>My nephew likes luxury cruises, family vacations, and winter getaways</t>
+  </si>
+  <si>
+    <t>My friend likes firearms, gun shows, and shooting sports</t>
+  </si>
+  <si>
+    <t>My partner likes hunting, outdoor activities, and family traditions</t>
+  </si>
+  <si>
+    <t>My sibling likes winter sports, ski trips, and family vacations in the Alps</t>
+  </si>
+  <si>
+    <t>My cousin likes wildlife safaris, African adventures, and close animal encounters</t>
+  </si>
+  <si>
+    <t>My sister likes industrial history, factory tours, and weekend excursions</t>
+  </si>
+  <si>
+    <t>My brother likes historical sites, prison tours, and learning about the justice system</t>
+  </si>
+  <si>
+    <t>My nephew likes cave exploration, underground adventures, and group expeditions</t>
+  </si>
+  <si>
+    <t>My friend likes fireworks displays, patriotic celebrations, and downtown events</t>
+  </si>
+  <si>
+    <t>My colleague likes tactical games, paintball, and team-building activities</t>
+  </si>
+  <si>
+    <t>My partner likes hiking, mountain scenery, and outdoor adventures</t>
+  </si>
+  <si>
+    <t>My sibling likes football, sports events, and supporting local teams</t>
+  </si>
+  <si>
+    <t>My cousin likes electronic dance music, rave culture, and vibrant parties</t>
+  </si>
+  <si>
+    <t>My sister likes obstacle courses, endurance events, and physical challenges</t>
+  </si>
+  <si>
+    <t>My brother likes guided tours, city exploration, and cultural attractions</t>
+  </si>
+  <si>
+    <t>My nephew likes winter sports, Swiss landscapes, and alpine adventures</t>
+  </si>
+  <si>
+    <t>My friend likes road trips, national parks, and cross-country exploration</t>
+  </si>
+  <si>
+    <t>My colleague likes virtual reality, theme park attractions, and immersive experiences</t>
+  </si>
+  <si>
+    <t>My partner likes water sports, beach activities, and trying new physical challenges</t>
+  </si>
+  <si>
+    <t>My sibling likes pottery, artistic expression, and hands-on crafts</t>
+  </si>
+  <si>
+    <t>My cousin likes sauna sessions, relaxation techniques, and wellness activities</t>
+  </si>
+  <si>
+    <t>My sister likes football matches, stadium atmospheres, and live sports events</t>
+  </si>
+  <si>
+    <t>My brother likes urban exploration, city walks, and guided tours of Manhattan</t>
+  </si>
+  <si>
+    <t>My nephew likes marathon running, urban races, and endurance sports</t>
+  </si>
+  <si>
+    <t>My friend likes extreme attractions, urban adventures, and unique viewing experiences</t>
+  </si>
+  <si>
+    <t>My colleague likes hot yoga, intense workouts, and fitness challenges</t>
+  </si>
+  <si>
+    <t>My partner likes outback adventures, road trips, and Australian landscapes</t>
+  </si>
+  <si>
+    <t>My sibling likes triathlons, endurance sports, and intense physical challenges</t>
+  </si>
+  <si>
+    <t>My cousin likes extreme sports, bungee jumping, and adrenaline rushes</t>
+  </si>
+  <si>
+    <t>My sister likes road trips, landscape painting, and natural wonders</t>
+  </si>
+  <si>
+    <t>My brother likes space simulations, unique experiences, and zero-gravity flights</t>
+  </si>
+  <si>
+    <t>My nephew likes mountain trekking, high-altitude challenges, and Himalayan adventures</t>
+  </si>
+  <si>
+    <t>My friend likes traditional crafts, textile arts, and cultural workshops</t>
+  </si>
+  <si>
+    <t>My colleague likes hiking, African landscapes, and outdoor adventures</t>
+  </si>
+  <si>
+    <t>My partner likes winter sports, ski lessons, and snow activities for beginners</t>
+  </si>
+  <si>
+    <t>My sibling likes electronic dance music, rave culture, and London nightlife</t>
+  </si>
+  <si>
+    <t>My cousin likes long-distance hiking, nature trails, and challenging treks</t>
+  </si>
+  <si>
+    <t>My sister likes arctic experiences, natural phenomena, and winter tourism</t>
+  </si>
+  <si>
+    <t>My brother likes aerial tours, Grand Canyon views, and unique perspectives</t>
+  </si>
+  <si>
+    <t>My colleague likes perfume making, behind-the-scenes tours, and sensory experiences</t>
+  </si>
+  <si>
+    <t>My friend likes mountain climbing, African adventures, and challenging expeditions</t>
+  </si>
+  <si>
+    <t>My partner likes historical sites, war history, and underground tunnels</t>
+  </si>
+  <si>
+    <t>My sibling likes culinary tours, gourmet experiences, and food tasting</t>
+  </si>
+  <si>
+    <t>My cousin likes Mexican cuisine, street food, and culinary adventures</t>
+  </si>
+  <si>
+    <t>My sister likes family fitness, martial arts, and kickboxing classes</t>
+  </si>
+  <si>
+    <t>My nephew likes desert festivals, art installations, and alternative experiences</t>
+  </si>
+  <si>
+    <t>My friend likes physical challenges, escape rooms, and high-intensity experiences</t>
+  </si>
+  <si>
+    <t>My colleague likes desert camping, hiking expeditions, and extreme environments</t>
+  </si>
+  <si>
+    <t>My partner likes skydiving, extreme sports, and shared adrenaline experiences</t>
+  </si>
+  <si>
+    <t>My sibling likes electronic music festivals, light shows, and multi-day events</t>
+  </si>
+  <si>
+    <t>My cousin likes sailing expeditions, remote islands, and Pacific adventures</t>
+  </si>
+  <si>
+    <t>My sister likes white-water rafting, intense rapids, and water sports</t>
+  </si>
+  <si>
+    <t>My brother likes mountain trekking, Everest adventures, and challenging expeditions</t>
+  </si>
+  <si>
+    <t>My nephew likes origami, paper crafts, and advanced artistic workshops</t>
+  </si>
+  <si>
+    <t>My friend likes immersive art exhibits, Van Gogh, and interactive experiences</t>
+  </si>
+  <si>
+    <t>My colleague likes high-tech entertainment, sensory experiences, and theme parks</t>
+  </si>
+  <si>
+    <t>My partner likes long-distance hiking, Pacific Crest Trail, and outdoor challenges</t>
+  </si>
+  <si>
+    <t>My sibling likes ice climbing, winter sports, and Canadian Rockies adventures</t>
+  </si>
+  <si>
+    <t>My cousin likes zero-gravity experiences, virtual reality gaming, and unique combinations</t>
+  </si>
+  <si>
+    <t>My sister likes aerial silk acrobatics, intensive training, and performance arts</t>
+  </si>
+  <si>
+    <t>My brother likes beer tasting, culinary tours, and traditional German snacks</t>
+  </si>
+  <si>
+    <t>My nephew likes casino entertainment, Las Vegas nightlife, and weekend getaways</t>
+  </si>
+  <si>
+    <t>My friend likes rodeo sports, bull riding, and western-themed camps</t>
+  </si>
+  <si>
+    <t>My colleague likes beach yoga, surfing retreats, and Hawaiian vacations</t>
+  </si>
+  <si>
+    <t>My partner likes scuba diving, Great Barrier Reef exploration, and marine life</t>
+  </si>
+  <si>
+    <t>My sibling likes rock climbing, outdoor sports, and introductory courses</t>
+  </si>
+  <si>
+    <t>My cousin likes triathlons, endurance sports, and intense physical challenges</t>
+  </si>
+  <si>
+    <t>My sister likes family fitness, boxing programs, and combat sports</t>
+  </si>
+  <si>
+    <t>My brother likes extreme sports combinations, urban adventures, and unique experiences</t>
+  </si>
+  <si>
+    <t>My nephew likes spa resorts, hot yoga, and relaxation retreats in Thailand</t>
+  </si>
+  <si>
+    <t>My friend likes Las Vegas nightlife, club scenes, and weekend getaways</t>
+  </si>
+  <si>
+    <t>My colleague likes immersive cinema, 4D experiences, and innovative entertainment</t>
+  </si>
+  <si>
+    <t>My partner likes scuba diving, marine exploration, and Great Barrier Reef adventures</t>
+  </si>
+  <si>
+    <t>My sibling likes glassblowing, artistic crafts, and semester-long courses</t>
+  </si>
+  <si>
+    <t>My cousin likes Mediterranean cruises, daily excursions, and cultural exploration</t>
+  </si>
+  <si>
+    <t>My sister likes kayaking expeditions, river adventures, and endurance challenges</t>
+  </si>
+  <si>
+    <t>My brother likes cycling challenges, multi-day races, and endurance sports</t>
+  </si>
+  <si>
+    <t>My nephew likes ice skating, winter sports, and indoor rink activities</t>
+  </si>
+  <si>
+    <t>My friend likes trampoline parks, acrobatic activities, and new fitness venues</t>
+  </si>
+  <si>
+    <t>My colleague likes miniature painting, detailed artwork, and creative workshops</t>
+  </si>
+  <si>
+    <t>My partner likes surprise adventures, bungee jumping, and aerial tours</t>
+  </si>
+  <si>
+    <t>My sibling likes aerial silk acrobatics, strength training, and diverse fitness activities</t>
+  </si>
+  <si>
+    <t>My cousin likes tap dancing, intensive workshops, and rhythmic movement</t>
+  </si>
+  <si>
+    <t>My sister likes photography tours, natural phenomena, and Icelandic landscapes</t>
+  </si>
+  <si>
+    <t>My brother likes paragliding, tandem flights, and aerial sports</t>
+  </si>
+  <si>
+    <t>My nephew likes zero-gravity experiences, virtual reality, and futuristic theme parks</t>
+  </si>
+  <si>
+    <t>My friend likes high-intensity escape rooms, physical challenges, and immersive experiences</t>
+  </si>
+  <si>
+    <t>My colleague likes surfing retreats, yoga practices, and Balinese beach resorts</t>
+  </si>
+  <si>
+    <t>My partner likes neon cityscapes, arcade gaming, and Tokyo nightlife</t>
+  </si>
+  <si>
+    <t>My sibling likes artisanal baking, French cuisine, and culinary workshops in Paris</t>
+  </si>
+  <si>
+    <t>My cousin likes extreme aerial sports, wing suit flying, and Swiss Alps adventures</t>
+  </si>
+  <si>
+    <t>My sister likes long-distance sailing, Atlantic voyages, and remote island exploration</t>
+  </si>
+  <si>
+    <t>My brother likes Berlin nightlife, week-long parties, and urban experiences</t>
+  </si>
+  <si>
+    <t>My nephew likes culinary competitions, curry tasting, and food judging</t>
+  </si>
+  <si>
+    <t>My friend likes exotic fruits, food festivals, and Southeast Asian cuisine</t>
+  </si>
+  <si>
+    <t>My colleague likes vegan alternatives, food truck rallies, and plant-based cuisine</t>
+  </si>
+  <si>
+    <t>My partner likes foraging, wilderness teas, and outdoor camping</t>
+  </si>
+  <si>
+    <t>My sibling likes exotic fruits, office potlucks, and multicultural events</t>
+  </si>
+  <si>
+    <t>My cousin likes edible flowers, garden-to-table dining, and innovative salads</t>
+  </si>
+  <si>
+    <t>My sister likes Asian cuisine, Lunar New Year celebrations, and traditional foods</t>
+  </si>
+  <si>
+    <t>My brother likes tropical fruits, smoothie bowls, and themed café experiences</t>
+  </si>
+  <si>
+    <t>My nephew likes artisanal preserves, food competitions, and unique fruit varieties</t>
+  </si>
+  <si>
+    <t>My friend likes Indian street food, cultural festivals, and spicy chutneys</t>
+  </si>
+  <si>
+    <t>My colleague likes health foods, post-workout snacks, and nutritious puddings</t>
+  </si>
+  <si>
+    <t>My partner likes wilderness cooking, alternative flours, and outdoor workshops</t>
+  </si>
+  <si>
+    <t>My sibling likes Ethiopian cuisine, traditional breads, and trying new restaurants</t>
+  </si>
+  <si>
+    <t>My cousin likes Cajun cooking, regional cuisine classes, and spicy foods</t>
+  </si>
+  <si>
+    <t>My sister likes gluten-free baking, alternative grains, and healthy cookies</t>
+  </si>
+  <si>
+    <t>My brother likes community gardening, fresh produce, and harvest celebrations</t>
+  </si>
+  <si>
+    <t>My nephew likes superfood smoothies, health food tastings, and nutritious drinks</t>
+  </si>
+  <si>
+    <t>My friend likes vegan alternatives, plant-based cuisine, and food festivals</t>
+  </si>
+  <si>
+    <t>My colleague likes Thai cooking, aromatic dishes, and culinary classes</t>
+  </si>
+  <si>
+    <t>My partner likes fusion cuisine, restaurant openings, and Asian-inspired dishes</t>
+  </si>
+  <si>
+    <t>My sibling likes foraging workshops, wild edibles, and seasonal ingredients</t>
+  </si>
+  <si>
+    <t>My cousin likes superfood supplements, pre-workout drinks, and fitness nutrition</t>
+  </si>
+  <si>
+    <t>My sister likes Mexican snacks, spicy seasonings, and game day foods</t>
+  </si>
+  <si>
+    <t>My brother likes healthier dessert alternatives, movie nights, and homemade treats</t>
+  </si>
+  <si>
+    <t>My nephew likes craft brewing, office events, and trying unique beers</t>
+  </si>
+  <si>
+    <t>My friend likes family brunches, homemade preserves, and traditional recipes</t>
+  </si>
+  <si>
+    <t>My colleague likes Japanese cuisine, cultural exchange, and trying new foods</t>
+  </si>
+  <si>
+    <t>My partner likes sustainable seafood, coastal cuisine, and unique soups</t>
+  </si>
+  <si>
+    <t>My sibling likes Japanese cooking classes, traditional snacks, and cultural foods</t>
+  </si>
+  <si>
+    <t>My cousin likes international cuisines, office events, and trying exotic fruits</t>
+  </si>
+  <si>
+    <t>My sister likes Mexican street food, neighborhood parties, and unique tacos</t>
+  </si>
+  <si>
+    <t>My brother likes New Orleans cuisine, themed cafés, and traditional coffee alternatives</t>
+  </si>
+  <si>
+    <t>My nephew likes whole grain breakfasts, hiking nutrition, and healthy starts</t>
+  </si>
+  <si>
+    <t>My friend likes homemade sushi, Japanese cuisine, and culinary experiments</t>
+  </si>
+  <si>
+    <t>My colleague likes Brazilian snacks, international film festivals, and cultural foods</t>
+  </si>
+  <si>
+    <t>My partner likes coastal dining, seafood dishes, and beachside restaurants</t>
+  </si>
+  <si>
+    <t>My sibling likes Indian cuisine, office food events, and vegetable dishes</t>
+  </si>
+  <si>
+    <t>My cousin likes Asian desserts, coffee pairings, and food festivals</t>
+  </si>
+  <si>
+    <t>My sister likes bubble tea, Polynesian flavors, and trendy café meetups</t>
+  </si>
+  <si>
+    <t>My brother likes community events, unique vegetable dishes, and potluck gatherings</t>
+  </si>
+  <si>
+    <t>My nephew likes farm-to-table dining, unusual vegetables, and gourmet appetizers</t>
+  </si>
+  <si>
+    <t>My friend likes Mediterranean cuisine, vegetarian dips, and food festivals</t>
+  </si>
+  <si>
+    <t>My colleague likes seasonal soups, comfort foods, and winter vegetables</t>
+  </si>
+  <si>
+    <t>My partner likes craft cocktails, spirits tasting events, and botanical flavors</t>
+  </si>
+  <si>
+    <t>My sibling likes exotic fruit preserves, office food days, and international breakfasts</t>
+  </si>
+  <si>
+    <t>My cousin likes Thai cuisine, street food festivals, and spicy salads</t>
+  </si>
+  <si>
+    <t>My sister likes family dinners, traditional side dishes, and stuffed vegetables</t>
+  </si>
+  <si>
+    <t>My brother likes urban foraging, wild greens, and sustainable food workshops</t>
+  </si>
+  <si>
+    <t>My nephew likes Korean snacks, cultural festivals, and traditional rice cakes</t>
+  </si>
+  <si>
+    <t>My friend likes farm-to-table restaurants, root vegetable soups, and seasonal ingredients</t>
+  </si>
+  <si>
+    <t>My colleague likes creative cocktails, fancy dinner parties, and edible flowers</t>
+  </si>
+  <si>
+    <t>My partner likes wilderness cooking, survival retreats, and foraged foods</t>
+  </si>
+  <si>
+    <t>My sibling likes health-conscious baking, alternative sweeteners, and taste testing</t>
+  </si>
+  <si>
+    <t>My cousin likes Japanese cuisine, high-end sushi, and creative food experiences</t>
+  </si>
+  <si>
+    <t>My sister likes Japanese festivals, traditional rice bowls, and pickled vegetables</t>
+  </si>
+  <si>
+    <t>My brother likes macrobiotic cooking, healthy stir-fries, and nutritious dinners</t>
+  </si>
+  <si>
+    <t>My nephew likes Scandinavian cuisine, themed brunches, and unique fruit juices</t>
+  </si>
+  <si>
+    <t>My friend likes tropical fruit tastings, exotic produce, and culinary adventures</t>
+  </si>
+  <si>
+    <t>My colleague likes Asian night markets, international food festivals, and unique desserts</t>
+  </si>
+  <si>
+    <t>My partner likes Ayurvedic practices, health shots, and yoga retreats</t>
+  </si>
+  <si>
+    <t>My sibling likes indoor water parks, family activities, and children's birthday parties</t>
+  </si>
+  <si>
+    <t>My cousin likes ancient history, Egyptian archaeology, and educational tours</t>
+  </si>
+  <si>
+    <t>My sister likes vegan cuisine, food festivals, and plant-based dining</t>
+  </si>
+  <si>
+    <t>My brother likes herbal teas, relaxation rituals, and wellness retreats</t>
+  </si>
+  <si>
+    <t>My nephew likes spa treatments, aromatherapy, and luxury relaxation experiences</t>
+  </si>
+  <si>
+    <t>My friend likes artisanal condiments, gourmet tastings, and unique flavor pairings</t>
+  </si>
+  <si>
+    <t>My colleague likes traditional holiday foods, roasted nuts, and festive gatherings</t>
+  </si>
+  <si>
+    <t>My partner likes local honey varieties, dessert festivals, and supporting beekeepers</t>
+  </si>
+  <si>
+    <t>My sibling likes international cuisines, office potlucks, and trying new foods</t>
+  </si>
+  <si>
+    <t>My cousin likes protein-rich smoothies, health food trends, and nutritious beverages</t>
+  </si>
+  <si>
+    <t>My sister likes seafood boils, casual gatherings, and communal dining experiences</t>
+  </si>
+  <si>
+    <t>My brother likes Italian cuisine, homemade pasta, and culinary workshops</t>
+  </si>
+  <si>
+    <t>My nephew likes seasonal treats, autumn festivals, and traditional harvest foods</t>
+  </si>
+  <si>
+    <t>My friend likes gourmet desserts, celebratory dinners, and special occasions</t>
+  </si>
+  <si>
+    <t>My colleague likes tropical smoothies, beach yoga, and healthy breakfast options</t>
+  </si>
+  <si>
+    <t>My partner likes Eastern European cuisine, hearty grains, and traditional cafes</t>
+  </si>
+  <si>
+    <t>My sibling likes seasonal cooking classes, root vegetables, and culinary education</t>
+  </si>
+  <si>
+    <t>My cousin likes fresh seafood, oyster bars, and coastal dining experiences</t>
+  </si>
+  <si>
+    <t>My sister likes fusion cuisine, Asian-inspired dishes, and dinner parties</t>
+  </si>
+  <si>
+    <t>My brother likes beachside dining, fresh seafood, and coastal vacations</t>
+  </si>
+  <si>
+    <t>My nephew likes artisanal bread making, food pairings, and gourmet dinner parties</t>
+  </si>
+  <si>
+    <t>My friend likes tropical desserts, themed cafes, and exotic flavor profiles</t>
+  </si>
+  <si>
+    <t>My colleague likes classic French cuisine, traditional bistros, and gourmet dining</t>
+  </si>
+  <si>
+    <t>My partner likes Mexican flavors, homemade salsas, and festive dinner parties</t>
+  </si>
+  <si>
+    <t>My sibling likes community gardening, farm-fresh produce, and sustainable agriculture</t>
+  </si>
+  <si>
+    <t>My cousin likes cave exploration, underground adventures, and geological wonders</t>
+  </si>
+  <si>
+    <t>My sister likes skydiving, extreme sports, and adrenaline rushes</t>
+  </si>
+  <si>
+    <t>My brother likes exotic animals, educational exhibits, and arachnology</t>
+  </si>
+  <si>
+    <t>My nephew likes aerial tours, scenic flights, and natural wonders</t>
+  </si>
+  <si>
+    <t>My friend likes animal welfare, volunteering, and community service</t>
+  </si>
+  <si>
+    <t>My colleague likes public speaking, conferences, and professional development</t>
+  </si>
+  <si>
+    <t>My partner likes body art, creative expression, and permanent mementos</t>
+  </si>
+  <si>
+    <t>My sibling likes deep-sea fishing, marine life, and ocean adventures</t>
+  </si>
+  <si>
+    <t>My cousin likes live music, concert atmospheres, and popular artists</t>
+  </si>
+  <si>
+    <t>My sister likes reptiles, exotic animals, and educational zoo exhibits</t>
+  </si>
+  <si>
+    <t>My brother likes scientific research, laboratory work, and microbiology</t>
+  </si>
+  <si>
+    <t>My nephew likes carnival attractions, acrobatic performances, and family entertainment</t>
+  </si>
+  <si>
+    <t>My friend likes medical volunteering, blood donation, and community health initiatives</t>
+  </si>
+  <si>
+    <t>My colleague likes tropical wildlife, insect diversity, and nature expeditions</t>
+  </si>
+  <si>
+    <t>My partner likes skyscrapers, urban architecture, and city exploration</t>
+  </si>
+  <si>
+    <t>My sibling likes nocturnal wildlife, forest ecosystems, and outdoor adventures</t>
+  </si>
+  <si>
+    <t>My cousin likes bird watching, wildlife conservation, and nature sanctuaries</t>
+  </si>
+  <si>
+    <t>My sister likes public health initiatives, community service, and medical outreach</t>
+  </si>
+  <si>
+    <t>My brother likes animal rescue, pet care, and shelter volunteering</t>
+  </si>
+  <si>
+    <t>My nephew likes international travel, aviation, and exploring new cultures</t>
+  </si>
+  <si>
+    <t>My friend likes public speaking, workshop facilitation, and knowledge sharing</t>
+  </si>
+  <si>
+    <t>My colleague likes reptile handling, wildlife education, and zoo volunteering</t>
+  </si>
+  <si>
+    <t>My partner likes mountain climbing, outdoor challenges, and physical endurance</t>
+  </si>
+  <si>
+    <t>My sibling likes arachnology, exotic pets, and unusual animal care</t>
+  </si>
+  <si>
+    <t>My cousin likes underground exploration, unique accommodations, and adventure tourism</t>
+  </si>
+  <si>
+    <t>My sister likes scuba diving, marine ecosystems, and underwater adventures</t>
+  </si>
+  <si>
+    <t>My brother likes music festivals, outdoor concerts, and diverse musical genres</t>
+  </si>
+  <si>
+    <t>My nephew likes cross-country travel, public transportation, and sustainable tourism</t>
+  </si>
+  <si>
+    <t>My friend likes body art, tattoo culture, and creative self-expression</t>
+  </si>
+  <si>
+    <t>My colleague likes aviation, scenic flights, and aerial photography</t>
+  </si>
+  <si>
+    <t>My partner likes canine events, dog training, and community engagement</t>
+  </si>
+  <si>
+    <t>My sibling likes professional networking, public speaking, and conference presentations</t>
+  </si>
+  <si>
+    <t>My cousin likes wildlife conservation, reptile handling, and environmental education</t>
+  </si>
+  <si>
+    <t>My sister likes spelunking, geological exploration, and underground adventures</t>
+  </si>
+  <si>
+    <t>My brother likes pediatric volunteering, hospital entertainment, and bringing joy to children</t>
+  </si>
+  <si>
+    <t>My nephew likes arachnology, rainforest ecosystems, and biodiversity research</t>
+  </si>
+  <si>
+    <t>My friend likes sailing expeditions, ocean navigation, and maritime adventures</t>
+  </si>
+  <si>
+    <t>My colleague likes beekeeping, honey production, and sustainable agriculture</t>
+  </si>
+  <si>
+    <t>My partner likes deep-sea exploration, marine biology, and underwater research</t>
+  </si>
+  <si>
+    <t>My sibling likes minimalist living, urban design, and innovative housing solutions</t>
+  </si>
+  <si>
+    <t>My cousin likes hot air ballooning, scenic views, and unique travel experiences</t>
+  </si>
+  <si>
+    <t>My sister likes global conferences, live streaming, and international collaboration</t>
+  </si>
+  <si>
+    <t>My brother likes wildlife conservation, reptile handling, and medical research</t>
+  </si>
+  <si>
+    <t>My nephew likes aviation, international travel, and diverse aircraft experiences</t>
+  </si>
+  <si>
+    <t>My friend likes animal care, dog training, and temporary pet fostering</t>
+  </si>
+  <si>
+    <t>My colleague likes microbiology, scientific research, and gut health studies</t>
+  </si>
+  <si>
+    <t>My partner likes urban celebrations, crowded events, and New Year's festivities</t>
+  </si>
+  <si>
+    <t>My sibling likes butchery skills, meat processing, and food industry volunteering</t>
+  </si>
+  <si>
+    <t>My cousin likes entomology, nocturnal insects, and backyard science experiments</t>
+  </si>
+  <si>
+    <t>My sister likes animal welfare, rodent care, and small pet rescue</t>
+  </si>
+  <si>
+    <t>My brother likes marine biology, shark conservation, and underwater adventures</t>
+  </si>
+  <si>
+    <t>My nephew likes unique collections, cultural artifacts, and museum visits</t>
+  </si>
+  <si>
+    <t>My friend likes optical illusions, funhouse attractions, and interactive exhibits</t>
+  </si>
+  <si>
+    <t>My colleague likes iconic architecture, road trips, and engineering marvels</t>
+  </si>
+  <si>
+    <t>My partner likes insect biology, artistic installations, and nature-inspired art</t>
+  </si>
+  <si>
+    <t>My sibling likes smart home technology, automation, and futuristic living spaces</t>
+  </si>
+  <si>
+    <t>My cousin likes plant-based diets, ethical food choices, and culinary festivals</t>
+  </si>
+  <si>
+    <t>My sister likes lepidopterology, conservation efforts, and nature events</t>
+  </si>
+  <si>
+    <t>My brother likes tropical plants, botanical care, and sustainable gardening</t>
+  </si>
+  <si>
+    <t>My nephew likes oceanography, marine research, and scientific expeditions</t>
+  </si>
+  <si>
+    <t>My friend likes mind-body practices, alternative healing, and personal challenges</t>
+  </si>
+  <si>
+    <t>My colleague likes ornithology, wildlife rehabilitation, and nature conservation</t>
+  </si>
+  <si>
+    <t>My partner likes architectural engineering, urban development, and vertical transportation</t>
+  </si>
+  <si>
+    <t>My sibling likes balance sports, outdoor fitness, and park activities</t>
+  </si>
+  <si>
+    <t>My cousin likes automotive stunts, motorsports, and high-energy events</t>
+  </si>
+  <si>
+    <t>My sister likes medical research, vaccine development, and public health initiatives</t>
+  </si>
+  <si>
+    <t>My brother likes cutting-edge technology, innovation showcases, and future trends</t>
+  </si>
+  <si>
+    <t>My nephew likes traditional medicine, holistic health practices, and alternative therapies</t>
+  </si>
+  <si>
+    <t>My friend likes exotic animals, wildlife conservation, and hands-on volunteering</t>
+  </si>
+  <si>
+    <t>My colleague likes water sports, river adventures, and outdoor activities</t>
+  </si>
+  <si>
+    <t>My partner likes apiculture, insect behavior, and sustainable beekeeping</t>
+  </si>
+  <si>
+    <t>My sibling likes historical festivals, cultural traditions, and immersive experiences</t>
+  </si>
+  <si>
+    <t>My cousin likes community health, medical outreach, and volunteer organization</t>
+  </si>
+  <si>
+    <t>My sister likes astronomy, stargazing, and natural phenomena observation</t>
+  </si>
+  <si>
+    <t>My brother likes role-playing events, survival scenarios, and themed simulations</t>
+  </si>
+  <si>
+    <t>My nephew likes literature, international authors, and cultural exchanges</t>
+  </si>
+  <si>
+    <t>My friend likes maritime history, naval technology, and underwater exploration</t>
+  </si>
+  <si>
+    <t>My colleague likes marine ecosystems, tropical fish, and underwater activities</t>
+  </si>
+  <si>
+    <t>My partner likes culinary arts, professional cooking, and gastronomic education</t>
+  </si>
+  <si>
+    <t>My sibling likes animal rescue, kitten care, and shelter volunteering</t>
+  </si>
+  <si>
+    <t>My cousin likes elderly care, community service, and intergenerational activities</t>
+  </si>
+  <si>
+    <t>My sister likes optical illusions, funhouse attractions, and amusement park experiences</t>
+  </si>
+  <si>
+    <t>My brother likes falconry, bird handling, and interactive wildlife experiences</t>
+  </si>
+  <si>
+    <t>My nephew likes meteorology, extreme weather research, and scientific expeditions</t>
   </si>
 </sst>
 </file>
@@ -4032,7 +4035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4044,9 +4047,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4267,8 +4267,8 @@
   </sheetPr>
   <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="64" workbookViewId="0">
+      <selection activeCell="G333" sqref="G333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="62" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4286,10 +4286,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1317</v>
+        <v>982</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1318</v>
+        <v>983</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4306,7 +4306,7 @@
         <v>311</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>597</v>
@@ -4324,7 +4324,7 @@
         <v>312</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>598</v>
@@ -4342,7 +4342,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>599</v>
@@ -4360,7 +4360,7 @@
         <v>314</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>600</v>
@@ -4378,7 +4378,7 @@
         <v>315</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>601</v>
@@ -4396,7 +4396,7 @@
         <v>316</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>602</v>
@@ -4414,7 +4414,7 @@
         <v>317</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>603</v>
@@ -4432,7 +4432,7 @@
         <v>318</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>604</v>
@@ -4450,7 +4450,7 @@
         <v>319</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>605</v>
@@ -4468,7 +4468,7 @@
         <v>320</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>606</v>
@@ -4486,7 +4486,7 @@
         <v>321</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>607</v>
@@ -4504,7 +4504,7 @@
         <v>322</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>306</v>
@@ -4522,7 +4522,7 @@
         <v>323</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>308</v>
@@ -4540,7 +4540,7 @@
         <v>324</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>310</v>
@@ -4558,7 +4558,7 @@
         <v>325</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>608</v>
@@ -4576,7 +4576,7 @@
         <v>326</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>609</v>
@@ -4594,7 +4594,7 @@
         <v>327</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>610</v>
@@ -4612,7 +4612,7 @@
         <v>328</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>611</v>
@@ -4630,7 +4630,7 @@
         <v>329</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>612</v>
@@ -4648,7 +4648,7 @@
         <v>330</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>613</v>
@@ -4666,7 +4666,7 @@
         <v>331</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>614</v>
@@ -4684,7 +4684,7 @@
         <v>332</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>616</v>
@@ -4702,7 +4702,7 @@
         <v>333</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>617</v>
@@ -4720,7 +4720,7 @@
         <v>334</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>618</v>
@@ -4738,7 +4738,7 @@
         <v>335</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>619</v>
@@ -4756,7 +4756,7 @@
         <v>336</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>620</v>
@@ -4774,7 +4774,7 @@
         <v>337</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>621</v>
@@ -4792,7 +4792,7 @@
         <v>338</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>622</v>
@@ -4810,7 +4810,7 @@
         <v>339</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>623</v>
@@ -4828,7 +4828,7 @@
         <v>340</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>624</v>
@@ -4846,7 +4846,7 @@
         <v>341</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>625</v>
@@ -4864,7 +4864,7 @@
         <v>342</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>626</v>
@@ -4882,7 +4882,7 @@
         <v>343</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>627</v>
@@ -4900,7 +4900,7 @@
         <v>344</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>628</v>
@@ -4918,7 +4918,7 @@
         <v>345</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>629</v>
@@ -4936,7 +4936,7 @@
         <v>346</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>630</v>
@@ -4954,7 +4954,7 @@
         <v>347</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>631</v>
@@ -4972,7 +4972,7 @@
         <v>348</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>632</v>
@@ -4990,7 +4990,7 @@
         <v>349</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>633</v>
@@ -5008,7 +5008,7 @@
         <v>350</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>634</v>
@@ -5026,7 +5026,7 @@
         <v>351</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>635</v>
@@ -5044,7 +5044,7 @@
         <v>352</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>636</v>
@@ -5062,7 +5062,7 @@
         <v>353</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>637</v>
@@ -5080,7 +5080,7 @@
         <v>354</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>638</v>
@@ -5098,7 +5098,7 @@
         <v>355</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>639</v>
@@ -5116,7 +5116,7 @@
         <v>356</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>640</v>
@@ -5134,7 +5134,7 @@
         <v>357</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>641</v>
@@ -5152,7 +5152,7 @@
         <v>358</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>642</v>
@@ -5170,7 +5170,7 @@
         <v>359</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>643</v>
@@ -5188,7 +5188,7 @@
         <v>360</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>975</v>
+        <v>1033</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>644</v>
@@ -5206,7 +5206,7 @@
         <v>361</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>976</v>
+        <v>1034</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>645</v>
@@ -5224,7 +5224,7 @@
         <v>362</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>977</v>
+        <v>1035</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>646</v>
@@ -5242,7 +5242,7 @@
         <v>363</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>978</v>
+        <v>1036</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>647</v>
@@ -5260,7 +5260,7 @@
         <v>364</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>979</v>
+        <v>1037</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>648</v>
@@ -5278,7 +5278,7 @@
         <v>365</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>980</v>
+        <v>1038</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>649</v>
@@ -5296,7 +5296,7 @@
         <v>366</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>981</v>
+        <v>1039</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>650</v>
@@ -5314,7 +5314,7 @@
         <v>367</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>982</v>
+        <v>1040</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>651</v>
@@ -5332,7 +5332,7 @@
         <v>368</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>983</v>
+        <v>1041</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>652</v>
@@ -5350,7 +5350,7 @@
         <v>369</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>984</v>
+        <v>1042</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>653</v>
@@ -5368,7 +5368,7 @@
         <v>370</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>985</v>
+        <v>1043</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>654</v>
@@ -5386,7 +5386,7 @@
         <v>371</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>986</v>
+        <v>1044</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>655</v>
@@ -5404,7 +5404,7 @@
         <v>372</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>987</v>
+        <v>1045</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>656</v>
@@ -5422,7 +5422,7 @@
         <v>373</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>988</v>
+        <v>1046</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>658</v>
@@ -5440,7 +5440,7 @@
         <v>374</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>989</v>
+        <v>1047</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>659</v>
@@ -5458,7 +5458,7 @@
         <v>375</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>990</v>
+        <v>1048</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>660</v>
@@ -5476,7 +5476,7 @@
         <v>376</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>991</v>
+        <v>1049</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>661</v>
@@ -5494,7 +5494,7 @@
         <v>377</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>992</v>
+        <v>1050</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>662</v>
@@ -5512,7 +5512,7 @@
         <v>378</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1103</v>
+        <v>1051</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>663</v>
@@ -5530,7 +5530,7 @@
         <v>379</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1104</v>
+        <v>1052</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>664</v>
@@ -5548,7 +5548,7 @@
         <v>380</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1105</v>
+        <v>1053</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>665</v>
@@ -5566,7 +5566,7 @@
         <v>381</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1106</v>
+        <v>1054</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>666</v>
@@ -5584,7 +5584,7 @@
         <v>382</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1107</v>
+        <v>1055</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>667</v>
@@ -5602,7 +5602,7 @@
         <v>383</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1108</v>
+        <v>1056</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>668</v>
@@ -5620,7 +5620,7 @@
         <v>384</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1109</v>
+        <v>1057</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>669</v>
@@ -5638,7 +5638,7 @@
         <v>385</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1110</v>
+        <v>1058</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>670</v>
@@ -5656,7 +5656,7 @@
         <v>386</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1111</v>
+        <v>1059</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>671</v>
@@ -5674,7 +5674,7 @@
         <v>387</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1112</v>
+        <v>1060</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>672</v>
@@ -5692,7 +5692,7 @@
         <v>388</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1113</v>
+        <v>1061</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>673</v>
@@ -5710,7 +5710,7 @@
         <v>389</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1114</v>
+        <v>1062</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>674</v>
@@ -5728,7 +5728,7 @@
         <v>390</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1115</v>
+        <v>1063</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>675</v>
@@ -5746,7 +5746,7 @@
         <v>391</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1116</v>
+        <v>1064</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>676</v>
@@ -5764,7 +5764,7 @@
         <v>392</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1117</v>
+        <v>1065</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>677</v>
@@ -5782,7 +5782,7 @@
         <v>393</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1118</v>
+        <v>1066</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>678</v>
@@ -5800,7 +5800,7 @@
         <v>394</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1119</v>
+        <v>1067</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>679</v>
@@ -5818,7 +5818,7 @@
         <v>395</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1120</v>
+        <v>1068</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>680</v>
@@ -5836,7 +5836,7 @@
         <v>396</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1121</v>
+        <v>1069</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>681</v>
@@ -5854,7 +5854,7 @@
         <v>397</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1122</v>
+        <v>1070</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>682</v>
@@ -5872,7 +5872,7 @@
         <v>398</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1123</v>
+        <v>1071</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>683</v>
@@ -5890,7 +5890,7 @@
         <v>399</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1124</v>
+        <v>1072</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>684</v>
@@ -5908,7 +5908,7 @@
         <v>400</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1125</v>
+        <v>1073</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>685</v>
@@ -5926,7 +5926,7 @@
         <v>401</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1126</v>
+        <v>1074</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>686</v>
@@ -5944,7 +5944,7 @@
         <v>402</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1127</v>
+        <v>1075</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>687</v>
@@ -5962,7 +5962,7 @@
         <v>403</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1042</v>
+        <v>1076</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>688</v>
@@ -5980,7 +5980,7 @@
         <v>404</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1128</v>
+        <v>1077</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>689</v>
@@ -5998,7 +5998,7 @@
         <v>405</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1129</v>
+        <v>1078</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>690</v>
@@ -6016,7 +6016,7 @@
         <v>406</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1130</v>
+        <v>1079</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>691</v>
@@ -6034,7 +6034,7 @@
         <v>407</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1131</v>
+        <v>1080</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>692</v>
@@ -6052,7 +6052,7 @@
         <v>408</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1132</v>
+        <v>1081</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>693</v>
@@ -6070,7 +6070,7 @@
         <v>409</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1043</v>
+        <v>1082</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>694</v>
@@ -6088,7 +6088,7 @@
         <v>410</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>695</v>
@@ -6106,7 +6106,7 @@
         <v>411</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1134</v>
+        <v>1084</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>696</v>
@@ -6124,7 +6124,7 @@
         <v>412</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1135</v>
+        <v>1085</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>697</v>
@@ -6142,7 +6142,7 @@
         <v>413</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1136</v>
+        <v>1086</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>698</v>
@@ -6160,7 +6160,7 @@
         <v>414</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1137</v>
+        <v>1087</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>699</v>
@@ -6178,7 +6178,7 @@
         <v>700</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1138</v>
+        <v>1088</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>701</v>
@@ -6196,7 +6196,7 @@
         <v>415</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1044</v>
+        <v>1089</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>702</v>
@@ -6214,7 +6214,7 @@
         <v>416</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1139</v>
+        <v>1090</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>703</v>
@@ -6231,7 +6231,9 @@
       <c r="B109" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C109" s="5"/>
+      <c r="C109" s="2" t="s">
+        <v>1091</v>
+      </c>
       <c r="D109" s="2" t="s">
         <v>704</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>418</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1141</v>
+        <v>1092</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>705</v>
@@ -6266,7 +6268,7 @@
         <v>419</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1142</v>
+        <v>1093</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>706</v>
@@ -6284,7 +6286,7 @@
         <v>420</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1143</v>
+        <v>1094</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>707</v>
@@ -6302,7 +6304,7 @@
         <v>421</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1144</v>
+        <v>1095</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>708</v>
@@ -6320,7 +6322,7 @@
         <v>422</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1145</v>
+        <v>1096</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>709</v>
@@ -6338,7 +6340,7 @@
         <v>423</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1146</v>
+        <v>1097</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>710</v>
@@ -6356,7 +6358,7 @@
         <v>424</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1147</v>
+        <v>1098</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>711</v>
@@ -6374,7 +6376,7 @@
         <v>425</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1148</v>
+        <v>1099</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>712</v>
@@ -6392,7 +6394,7 @@
         <v>426</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1149</v>
+        <v>1100</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>713</v>
@@ -6410,7 +6412,7 @@
         <v>427</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1150</v>
+        <v>1101</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>714</v>
@@ -6428,7 +6430,7 @@
         <v>428</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1151</v>
+        <v>1102</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>971</v>
@@ -6446,7 +6448,7 @@
         <v>429</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1152</v>
+        <v>1103</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>715</v>
@@ -6464,7 +6466,7 @@
         <v>430</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1153</v>
+        <v>1104</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>716</v>
@@ -6482,7 +6484,7 @@
         <v>431</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1154</v>
+        <v>1105</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>717</v>
@@ -6500,7 +6502,7 @@
         <v>432</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1155</v>
+        <v>1106</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>718</v>
@@ -6518,7 +6520,7 @@
         <v>433</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1156</v>
+        <v>1107</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>719</v>
@@ -6536,7 +6538,7 @@
         <v>434</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1157</v>
+        <v>1108</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>720</v>
@@ -6554,7 +6556,7 @@
         <v>435</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1158</v>
+        <v>1109</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>721</v>
@@ -6572,7 +6574,7 @@
         <v>436</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1159</v>
+        <v>1110</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>722</v>
@@ -6590,7 +6592,7 @@
         <v>437</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1160</v>
+        <v>1111</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>724</v>
@@ -6608,7 +6610,7 @@
         <v>438</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1161</v>
+        <v>1112</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>725</v>
@@ -6626,7 +6628,7 @@
         <v>439</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1162</v>
+        <v>1113</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>726</v>
@@ -6644,7 +6646,7 @@
         <v>440</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1163</v>
+        <v>1114</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>727</v>
@@ -6662,7 +6664,7 @@
         <v>441</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1164</v>
+        <v>1115</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>728</v>
@@ -6680,7 +6682,7 @@
         <v>442</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1165</v>
+        <v>1116</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>729</v>
@@ -6698,7 +6700,7 @@
         <v>443</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1166</v>
+        <v>1117</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>730</v>
@@ -6716,7 +6718,7 @@
         <v>444</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1167</v>
+        <v>1118</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>731</v>
@@ -6734,7 +6736,7 @@
         <v>445</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1168</v>
+        <v>1119</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>732</v>
@@ -6752,7 +6754,7 @@
         <v>446</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1169</v>
+        <v>1120</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>733</v>
@@ -6770,7 +6772,7 @@
         <v>447</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1170</v>
+        <v>1121</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>734</v>
@@ -6788,7 +6790,7 @@
         <v>448</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1171</v>
+        <v>1122</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>735</v>
@@ -6806,7 +6808,7 @@
         <v>449</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1172</v>
+        <v>1123</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>736</v>
@@ -6824,7 +6826,7 @@
         <v>450</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1173</v>
+        <v>1124</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>737</v>
@@ -6842,7 +6844,7 @@
         <v>451</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1174</v>
+        <v>1125</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>738</v>
@@ -6860,7 +6862,7 @@
         <v>452</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1175</v>
+        <v>1126</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>739</v>
@@ -6878,7 +6880,7 @@
         <v>453</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1176</v>
+        <v>1127</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>740</v>
@@ -6896,7 +6898,7 @@
         <v>454</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1177</v>
+        <v>1128</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>741</v>
@@ -6914,7 +6916,7 @@
         <v>455</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1178</v>
+        <v>1129</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>742</v>
@@ -6932,7 +6934,7 @@
         <v>456</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1179</v>
+        <v>1130</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>735</v>
@@ -6950,7 +6952,7 @@
         <v>457</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1180</v>
+        <v>1131</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>743</v>
@@ -6968,7 +6970,7 @@
         <v>458</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1181</v>
+        <v>1132</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>744</v>
@@ -6986,7 +6988,7 @@
         <v>459</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1186</v>
+        <v>1133</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>745</v>
@@ -7004,7 +7006,7 @@
         <v>460</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1182</v>
+        <v>1134</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>746</v>
@@ -7022,7 +7024,7 @@
         <v>304</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1183</v>
+        <v>1135</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>747</v>
@@ -7040,7 +7042,7 @@
         <v>461</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>1184</v>
+        <v>1136</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>748</v>
@@ -7058,7 +7060,7 @@
         <v>462</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>1185</v>
+        <v>1137</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>749</v>
@@ -7076,7 +7078,7 @@
         <v>463</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1045</v>
+        <v>1138</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>750</v>
@@ -7094,7 +7096,7 @@
         <v>464</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1046</v>
+        <v>1139</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>751</v>
@@ -7112,7 +7114,7 @@
         <v>465</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>1047</v>
+        <v>1140</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>752</v>
@@ -7130,7 +7132,7 @@
         <v>466</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>1048</v>
+        <v>1141</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>753</v>
@@ -7148,7 +7150,7 @@
         <v>467</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>1049</v>
+        <v>1142</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>754</v>
@@ -7166,7 +7168,7 @@
         <v>468</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>755</v>
@@ -7184,7 +7186,7 @@
         <v>469</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>1050</v>
+        <v>1144</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>756</v>
@@ -7202,7 +7204,7 @@
         <v>470</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>1051</v>
+        <v>1145</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>757</v>
@@ -7220,7 +7222,7 @@
         <v>471</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>1052</v>
+        <v>1146</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>758</v>
@@ -7238,7 +7240,7 @@
         <v>472</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>1053</v>
+        <v>1147</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>759</v>
@@ -7256,7 +7258,7 @@
         <v>473</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>1054</v>
+        <v>1148</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>972</v>
@@ -7274,7 +7276,7 @@
         <v>474</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1055</v>
+        <v>1149</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>760</v>
@@ -7292,7 +7294,7 @@
         <v>475</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1056</v>
+        <v>1150</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>761</v>
@@ -7310,7 +7312,7 @@
         <v>973</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1057</v>
+        <v>1151</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>974</v>
@@ -7328,7 +7330,7 @@
         <v>476</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1058</v>
+        <v>1152</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>763</v>
@@ -7346,7 +7348,7 @@
         <v>477</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1059</v>
+        <v>1153</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>764</v>
@@ -7364,7 +7366,7 @@
         <v>478</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1060</v>
+        <v>1154</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>765</v>
@@ -7382,7 +7384,7 @@
         <v>479</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1061</v>
+        <v>1155</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>766</v>
@@ -7400,7 +7402,7 @@
         <v>480</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1062</v>
+        <v>1156</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>767</v>
@@ -7418,7 +7420,7 @@
         <v>481</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1063</v>
+        <v>1157</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>768</v>
@@ -7436,7 +7438,7 @@
         <v>482</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1064</v>
+        <v>1158</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>769</v>
@@ -7454,7 +7456,7 @@
         <v>483</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1065</v>
+        <v>1159</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>770</v>
@@ -7472,7 +7474,7 @@
         <v>484</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1066</v>
+        <v>1160</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>771</v>
@@ -7490,7 +7492,7 @@
         <v>485</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1067</v>
+        <v>1161</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>772</v>
@@ -7508,7 +7510,7 @@
         <v>486</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1068</v>
+        <v>1162</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>773</v>
@@ -7526,7 +7528,7 @@
         <v>487</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>1069</v>
+        <v>1163</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>774</v>
@@ -7544,7 +7546,7 @@
         <v>488</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>1070</v>
+        <v>1164</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>775</v>
@@ -7562,7 +7564,7 @@
         <v>489</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>1071</v>
+        <v>1165</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>776</v>
@@ -7580,7 +7582,7 @@
         <v>490</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1072</v>
+        <v>1166</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>777</v>
@@ -7598,7 +7600,7 @@
         <v>491</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1073</v>
+        <v>1167</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>778</v>
@@ -7616,7 +7618,7 @@
         <v>492</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1074</v>
+        <v>1168</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>779</v>
@@ -7634,7 +7636,7 @@
         <v>493</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1075</v>
+        <v>1169</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>780</v>
@@ -7652,7 +7654,7 @@
         <v>494</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1076</v>
+        <v>1170</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>781</v>
@@ -7670,7 +7672,7 @@
         <v>495</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>1077</v>
+        <v>1171</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>782</v>
@@ -7688,7 +7690,7 @@
         <v>496</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>1078</v>
+        <v>1172</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>783</v>
@@ -7706,7 +7708,7 @@
         <v>497</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1079</v>
+        <v>1173</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>784</v>
@@ -7724,7 +7726,7 @@
         <v>498</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1080</v>
+        <v>1174</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>785</v>
@@ -7742,7 +7744,7 @@
         <v>499</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1081</v>
+        <v>1175</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>786</v>
@@ -7760,7 +7762,7 @@
         <v>500</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>1082</v>
+        <v>1176</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>787</v>
@@ -7778,7 +7780,7 @@
         <v>501</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1083</v>
+        <v>1177</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>788</v>
@@ -7796,7 +7798,7 @@
         <v>502</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1084</v>
+        <v>1178</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>789</v>
@@ -7814,7 +7816,7 @@
         <v>503</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1085</v>
+        <v>1179</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>790</v>
@@ -7832,7 +7834,7 @@
         <v>504</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1086</v>
+        <v>1180</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>791</v>
@@ -7850,7 +7852,7 @@
         <v>505</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1087</v>
+        <v>1181</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>792</v>
@@ -7868,7 +7870,7 @@
         <v>506</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>1088</v>
+        <v>1182</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>793</v>
@@ -7886,7 +7888,7 @@
         <v>507</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1089</v>
+        <v>1183</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>794</v>
@@ -7904,7 +7906,7 @@
         <v>508</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>1090</v>
+        <v>1184</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>795</v>
@@ -7922,7 +7924,7 @@
         <v>509</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>1091</v>
+        <v>1185</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>796</v>
@@ -7940,7 +7942,7 @@
         <v>510</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>1092</v>
+        <v>1186</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>797</v>
@@ -7958,7 +7960,7 @@
         <v>511</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1093</v>
+        <v>1187</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>798</v>
@@ -7976,7 +7978,7 @@
         <v>512</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1094</v>
+        <v>1188</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>799</v>
@@ -7994,7 +7996,7 @@
         <v>513</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1095</v>
+        <v>1189</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>800</v>
@@ -8012,7 +8014,7 @@
         <v>514</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>1096</v>
+        <v>1190</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>801</v>
@@ -8030,7 +8032,7 @@
         <v>515</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>1097</v>
+        <v>1191</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>802</v>
@@ -8048,7 +8050,7 @@
         <v>516</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>1098</v>
+        <v>1192</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>803</v>
@@ -8066,7 +8068,7 @@
         <v>517</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1099</v>
+        <v>1193</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>804</v>
@@ -8084,7 +8086,7 @@
         <v>518</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1100</v>
+        <v>1194</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>805</v>
@@ -8102,7 +8104,7 @@
         <v>519</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>1101</v>
+        <v>1195</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>806</v>
@@ -8120,7 +8122,7 @@
         <v>520</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1102</v>
+        <v>1196</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>807</v>
@@ -8138,7 +8140,7 @@
         <v>521</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>1187</v>
+        <v>1197</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>808</v>
@@ -8156,7 +8158,7 @@
         <v>522</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1188</v>
+        <v>1198</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>809</v>
@@ -8174,7 +8176,7 @@
         <v>523</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1189</v>
+        <v>1199</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>810</v>
@@ -8192,7 +8194,7 @@
         <v>524</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1190</v>
+        <v>1200</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>811</v>
@@ -8210,7 +8212,7 @@
         <v>525</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1191</v>
+        <v>1201</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>812</v>
@@ -8228,7 +8230,7 @@
         <v>526</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1192</v>
+        <v>1202</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>813</v>
@@ -8246,7 +8248,7 @@
         <v>527</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1193</v>
+        <v>1203</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>814</v>
@@ -8264,7 +8266,7 @@
         <v>528</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1194</v>
+        <v>1204</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>815</v>
@@ -8282,7 +8284,7 @@
         <v>529</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1195</v>
+        <v>1205</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>816</v>
@@ -8299,8 +8301,8 @@
       <c r="B224" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C224" s="5" t="s">
-        <v>1196</v>
+      <c r="C224" s="2" t="s">
+        <v>1206</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>817</v>
@@ -8317,8 +8319,8 @@
       <c r="B225" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C225" s="5" t="s">
-        <v>1197</v>
+      <c r="C225" s="2" t="s">
+        <v>1207</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>818</v>
@@ -8335,8 +8337,8 @@
       <c r="B226" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C226" s="5" t="s">
-        <v>1198</v>
+      <c r="C226" s="2" t="s">
+        <v>1208</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>819</v>
@@ -8353,8 +8355,8 @@
       <c r="B227" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>1199</v>
+      <c r="C227" s="2" t="s">
+        <v>1209</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>820</v>
@@ -8371,8 +8373,8 @@
       <c r="B228" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C228" s="5" t="s">
-        <v>1200</v>
+      <c r="C228" s="2" t="s">
+        <v>1210</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>821</v>
@@ -8389,8 +8391,8 @@
       <c r="B229" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C229" s="5" t="s">
-        <v>1201</v>
+      <c r="C229" s="2" t="s">
+        <v>1211</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>822</v>
@@ -8407,8 +8409,8 @@
       <c r="B230" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C230" s="5" t="s">
-        <v>1202</v>
+      <c r="C230" s="2" t="s">
+        <v>1212</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>823</v>
@@ -8425,8 +8427,8 @@
       <c r="B231" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C231" s="5" t="s">
-        <v>1203</v>
+      <c r="C231" s="2" t="s">
+        <v>1213</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>824</v>
@@ -8443,8 +8445,8 @@
       <c r="B232" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C232" s="5" t="s">
-        <v>1204</v>
+      <c r="C232" s="2" t="s">
+        <v>1214</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>825</v>
@@ -8461,8 +8463,8 @@
       <c r="B233" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C233" s="5" t="s">
-        <v>1205</v>
+      <c r="C233" s="2" t="s">
+        <v>1215</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>826</v>
@@ -8479,8 +8481,8 @@
       <c r="B234" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C234" s="5" t="s">
-        <v>1206</v>
+      <c r="C234" s="2" t="s">
+        <v>1216</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>827</v>
@@ -8497,8 +8499,8 @@
       <c r="B235" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C235" s="5" t="s">
-        <v>1207</v>
+      <c r="C235" s="2" t="s">
+        <v>1217</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>828</v>
@@ -8515,8 +8517,8 @@
       <c r="B236" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C236" s="5" t="s">
-        <v>1208</v>
+      <c r="C236" s="2" t="s">
+        <v>1218</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>829</v>
@@ -8533,8 +8535,8 @@
       <c r="B237" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C237" s="5" t="s">
-        <v>1209</v>
+      <c r="C237" s="2" t="s">
+        <v>1219</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>830</v>
@@ -8551,8 +8553,8 @@
       <c r="B238" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C238" s="5" t="s">
-        <v>1210</v>
+      <c r="C238" s="2" t="s">
+        <v>1220</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>831</v>
@@ -8569,8 +8571,8 @@
       <c r="B239" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C239" s="5" t="s">
-        <v>1211</v>
+      <c r="C239" s="2" t="s">
+        <v>1221</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>832</v>
@@ -8587,8 +8589,8 @@
       <c r="B240" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C240" s="5" t="s">
-        <v>1212</v>
+      <c r="C240" s="2" t="s">
+        <v>1222</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>833</v>
@@ -8605,8 +8607,8 @@
       <c r="B241" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C241" s="5" t="s">
-        <v>1213</v>
+      <c r="C241" s="2" t="s">
+        <v>1223</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>834</v>
@@ -8623,8 +8625,8 @@
       <c r="B242" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C242" s="5" t="s">
-        <v>1214</v>
+      <c r="C242" s="2" t="s">
+        <v>1224</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>835</v>
@@ -8641,8 +8643,8 @@
       <c r="B243" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C243" s="5" t="s">
-        <v>1215</v>
+      <c r="C243" s="2" t="s">
+        <v>1225</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>836</v>
@@ -8659,8 +8661,8 @@
       <c r="B244" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C244" s="5" t="s">
-        <v>1216</v>
+      <c r="C244" s="2" t="s">
+        <v>1226</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>837</v>
@@ -8677,8 +8679,8 @@
       <c r="B245" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="C245" s="5" t="s">
-        <v>1217</v>
+      <c r="C245" s="2" t="s">
+        <v>1227</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>839</v>
@@ -8695,8 +8697,8 @@
       <c r="B246" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C246" s="5" t="s">
-        <v>1218</v>
+      <c r="C246" s="2" t="s">
+        <v>1228</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>840</v>
@@ -8713,8 +8715,8 @@
       <c r="B247" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C247" s="5" t="s">
-        <v>1219</v>
+      <c r="C247" s="2" t="s">
+        <v>1229</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>841</v>
@@ -8731,8 +8733,8 @@
       <c r="B248" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C248" s="5" t="s">
-        <v>1220</v>
+      <c r="C248" s="2" t="s">
+        <v>1230</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>842</v>
@@ -8749,8 +8751,8 @@
       <c r="B249" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C249" s="5" t="s">
-        <v>1221</v>
+      <c r="C249" s="2" t="s">
+        <v>1231</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>843</v>
@@ -8767,8 +8769,8 @@
       <c r="B250" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C250" s="5" t="s">
-        <v>1222</v>
+      <c r="C250" s="2" t="s">
+        <v>1232</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>844</v>
@@ -8785,8 +8787,8 @@
       <c r="B251" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C251" s="5" t="s">
-        <v>1223</v>
+      <c r="C251" s="2" t="s">
+        <v>1233</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>845</v>
@@ -8803,8 +8805,8 @@
       <c r="B252" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C252" s="5" t="s">
-        <v>1224</v>
+      <c r="C252" s="2" t="s">
+        <v>1234</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>846</v>
@@ -8821,8 +8823,8 @@
       <c r="B253" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C253" s="5" t="s">
-        <v>1225</v>
+      <c r="C253" s="2" t="s">
+        <v>1235</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>847</v>
@@ -8839,8 +8841,8 @@
       <c r="B254" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C254" s="5" t="s">
-        <v>1226</v>
+      <c r="C254" s="2" t="s">
+        <v>1236</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>848</v>
@@ -8857,8 +8859,8 @@
       <c r="B255" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C255" s="5" t="s">
-        <v>1227</v>
+      <c r="C255" s="2" t="s">
+        <v>1237</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>849</v>
@@ -8875,8 +8877,8 @@
       <c r="B256" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C256" s="5" t="s">
-        <v>1228</v>
+      <c r="C256" s="2" t="s">
+        <v>1238</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>850</v>
@@ -8893,8 +8895,8 @@
       <c r="B257" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C257" s="5" t="s">
-        <v>1229</v>
+      <c r="C257" s="2" t="s">
+        <v>1239</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>851</v>
@@ -8911,8 +8913,8 @@
       <c r="B258" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C258" s="5" t="s">
-        <v>1230</v>
+      <c r="C258" s="2" t="s">
+        <v>1240</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>852</v>
@@ -8929,8 +8931,8 @@
       <c r="B259" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C259" s="5" t="s">
-        <v>1231</v>
+      <c r="C259" s="2" t="s">
+        <v>1241</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>853</v>
@@ -8947,8 +8949,8 @@
       <c r="B260" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C260" s="5" t="s">
-        <v>1232</v>
+      <c r="C260" s="2" t="s">
+        <v>1242</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>854</v>
@@ -8965,8 +8967,8 @@
       <c r="B261" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C261" s="5" t="s">
-        <v>1233</v>
+      <c r="C261" s="2" t="s">
+        <v>1243</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>855</v>
@@ -8983,8 +8985,8 @@
       <c r="B262" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C262" s="5" t="s">
-        <v>1234</v>
+      <c r="C262" s="2" t="s">
+        <v>1244</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>856</v>
@@ -9001,8 +9003,8 @@
       <c r="B263" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C263" s="5" t="s">
-        <v>1235</v>
+      <c r="C263" s="2" t="s">
+        <v>1245</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>857</v>
@@ -9019,8 +9021,8 @@
       <c r="B264" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C264" s="5" t="s">
-        <v>1236</v>
+      <c r="C264" s="2" t="s">
+        <v>1246</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>858</v>
@@ -9037,8 +9039,8 @@
       <c r="B265" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C265" s="5" t="s">
-        <v>1237</v>
+      <c r="C265" s="2" t="s">
+        <v>1247</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>859</v>
@@ -9055,8 +9057,8 @@
       <c r="B266" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C266" s="5" t="s">
-        <v>1238</v>
+      <c r="C266" s="2" t="s">
+        <v>1248</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>860</v>
@@ -9073,8 +9075,8 @@
       <c r="B267" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C267" s="5" t="s">
-        <v>1239</v>
+      <c r="C267" s="2" t="s">
+        <v>1249</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>861</v>
@@ -9091,8 +9093,8 @@
       <c r="B268" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C268" s="5" t="s">
-        <v>1240</v>
+      <c r="C268" s="2" t="s">
+        <v>1250</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>862</v>
@@ -9109,8 +9111,8 @@
       <c r="B269" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C269" s="5" t="s">
-        <v>1241</v>
+      <c r="C269" s="2" t="s">
+        <v>1251</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>863</v>
@@ -9127,8 +9129,8 @@
       <c r="B270" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C270" s="5" t="s">
-        <v>1242</v>
+      <c r="C270" s="2" t="s">
+        <v>1252</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>864</v>
@@ -9145,8 +9147,8 @@
       <c r="B271" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C271" s="5" t="s">
-        <v>1243</v>
+      <c r="C271" s="2" t="s">
+        <v>1253</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>865</v>
@@ -9163,8 +9165,8 @@
       <c r="B272" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C272" s="5" t="s">
-        <v>1244</v>
+      <c r="C272" s="2" t="s">
+        <v>1254</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>866</v>
@@ -9181,8 +9183,8 @@
       <c r="B273" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C273" s="5" t="s">
-        <v>1245</v>
+      <c r="C273" s="2" t="s">
+        <v>1255</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>867</v>
@@ -9199,8 +9201,8 @@
       <c r="B274" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C274" s="5" t="s">
-        <v>1246</v>
+      <c r="C274" s="2" t="s">
+        <v>1256</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>868</v>
@@ -9217,8 +9219,8 @@
       <c r="B275" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>1247</v>
+      <c r="C275" s="2" t="s">
+        <v>1257</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>869</v>
@@ -9235,8 +9237,8 @@
       <c r="B276" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C276" s="5" t="s">
-        <v>1248</v>
+      <c r="C276" s="2" t="s">
+        <v>1258</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>870</v>
@@ -9253,8 +9255,8 @@
       <c r="B277" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C277" s="5" t="s">
-        <v>1249</v>
+      <c r="C277" s="2" t="s">
+        <v>1259</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>871</v>
@@ -9271,8 +9273,8 @@
       <c r="B278" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C278" s="5" t="s">
-        <v>1250</v>
+      <c r="C278" s="2" t="s">
+        <v>1260</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>872</v>
@@ -9289,8 +9291,8 @@
       <c r="B279" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C279" s="5" t="s">
-        <v>1251</v>
+      <c r="C279" s="2" t="s">
+        <v>1261</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>873</v>
@@ -9307,8 +9309,8 @@
       <c r="B280" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C280" s="5" t="s">
-        <v>1252</v>
+      <c r="C280" s="2" t="s">
+        <v>1262</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>874</v>
@@ -9325,8 +9327,8 @@
       <c r="B281" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C281" s="5" t="s">
-        <v>1253</v>
+      <c r="C281" s="2" t="s">
+        <v>1263</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>875</v>
@@ -9343,8 +9345,8 @@
       <c r="B282" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C282" s="5" t="s">
-        <v>1254</v>
+      <c r="C282" s="2" t="s">
+        <v>1264</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>876</v>
@@ -9361,8 +9363,8 @@
       <c r="B283" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C283" s="5" t="s">
-        <v>1255</v>
+      <c r="C283" s="2" t="s">
+        <v>1265</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>877</v>
@@ -9379,8 +9381,8 @@
       <c r="B284" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C284" s="5" t="s">
-        <v>1256</v>
+      <c r="C284" s="2" t="s">
+        <v>1266</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>878</v>
@@ -9397,8 +9399,8 @@
       <c r="B285" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C285" s="5" t="s">
-        <v>1257</v>
+      <c r="C285" s="2" t="s">
+        <v>1267</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>879</v>
@@ -9415,8 +9417,8 @@
       <c r="B286" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C286" s="5" t="s">
-        <v>1258</v>
+      <c r="C286" s="2" t="s">
+        <v>1268</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>880</v>
@@ -9433,8 +9435,8 @@
       <c r="B287" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C287" s="5" t="s">
-        <v>1259</v>
+      <c r="C287" s="2" t="s">
+        <v>1269</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>881</v>
@@ -9451,8 +9453,8 @@
       <c r="B288" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C288" s="5" t="s">
-        <v>1260</v>
+      <c r="C288" s="2" t="s">
+        <v>1270</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>882</v>
@@ -9469,8 +9471,8 @@
       <c r="B289" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C289" s="5" t="s">
-        <v>1261</v>
+      <c r="C289" s="2" t="s">
+        <v>1271</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>883</v>
@@ -9487,8 +9489,8 @@
       <c r="B290" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C290" s="5" t="s">
-        <v>1262</v>
+      <c r="C290" s="2" t="s">
+        <v>1272</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>884</v>
@@ -9505,8 +9507,8 @@
       <c r="B291" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="C291" s="5" t="s">
-        <v>1263</v>
+      <c r="C291" s="2" t="s">
+        <v>1273</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>886</v>
@@ -9523,8 +9525,8 @@
       <c r="B292" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="C292" s="5" t="s">
-        <v>1264</v>
+      <c r="C292" s="2" t="s">
+        <v>1274</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>888</v>
@@ -9541,8 +9543,8 @@
       <c r="B293" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C293" s="5" t="s">
-        <v>1265</v>
+      <c r="C293" s="2" t="s">
+        <v>1275</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>889</v>
@@ -9559,8 +9561,8 @@
       <c r="B294" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="C294" s="5" t="s">
-        <v>1266</v>
+      <c r="C294" s="2" t="s">
+        <v>1276</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>891</v>
@@ -9577,8 +9579,8 @@
       <c r="B295" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="C295" s="5" t="s">
-        <v>1267</v>
+      <c r="C295" s="2" t="s">
+        <v>1277</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>893</v>
@@ -9595,8 +9597,8 @@
       <c r="B296" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>1268</v>
+      <c r="C296" s="2" t="s">
+        <v>1278</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>895</v>
@@ -9613,8 +9615,8 @@
       <c r="B297" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="C297" s="5" t="s">
-        <v>1269</v>
+      <c r="C297" s="2" t="s">
+        <v>1279</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>897</v>
@@ -9631,8 +9633,8 @@
       <c r="B298" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="C298" s="5" t="s">
-        <v>1270</v>
+      <c r="C298" s="2" t="s">
+        <v>1280</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>899</v>
@@ -9649,8 +9651,8 @@
       <c r="B299" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="C299" s="5" t="s">
-        <v>1271</v>
+      <c r="C299" s="2" t="s">
+        <v>1281</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>901</v>
@@ -9667,8 +9669,8 @@
       <c r="B300" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="C300" s="5" t="s">
-        <v>1272</v>
+      <c r="C300" s="2" t="s">
+        <v>1282</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>903</v>
@@ -9685,8 +9687,8 @@
       <c r="B301" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="C301" s="5" t="s">
-        <v>1273</v>
+      <c r="C301" s="2" t="s">
+        <v>1283</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>905</v>
@@ -9703,8 +9705,8 @@
       <c r="B302" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C302" s="5" t="s">
-        <v>1274</v>
+      <c r="C302" s="2" t="s">
+        <v>1284</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>907</v>
@@ -9721,8 +9723,8 @@
       <c r="B303" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="C303" s="5" t="s">
-        <v>1275</v>
+      <c r="C303" s="2" t="s">
+        <v>1285</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>909</v>
@@ -9739,8 +9741,8 @@
       <c r="B304" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="C304" s="5" t="s">
-        <v>1276</v>
+      <c r="C304" s="2" t="s">
+        <v>1286</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>911</v>
@@ -9757,8 +9759,8 @@
       <c r="B305" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="C305" s="5" t="s">
-        <v>1277</v>
+      <c r="C305" s="2" t="s">
+        <v>1287</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>913</v>
@@ -9775,8 +9777,8 @@
       <c r="B306" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="C306" s="5" t="s">
-        <v>1278</v>
+      <c r="C306" s="2" t="s">
+        <v>1288</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>915</v>
@@ -9793,8 +9795,8 @@
       <c r="B307" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="C307" s="5" t="s">
-        <v>1279</v>
+      <c r="C307" s="2" t="s">
+        <v>1289</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>917</v>
@@ -9811,8 +9813,8 @@
       <c r="B308" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="C308" s="5" t="s">
-        <v>1280</v>
+      <c r="C308" s="2" t="s">
+        <v>1290</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>919</v>
@@ -9829,8 +9831,8 @@
       <c r="B309" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="C309" s="5" t="s">
-        <v>1281</v>
+      <c r="C309" s="2" t="s">
+        <v>1291</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>921</v>
@@ -9847,8 +9849,8 @@
       <c r="B310" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="C310" s="5" t="s">
-        <v>1282</v>
+      <c r="C310" s="2" t="s">
+        <v>1292</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>923</v>
@@ -9865,8 +9867,8 @@
       <c r="B311" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="C311" s="5" t="s">
-        <v>1283</v>
+      <c r="C311" s="2" t="s">
+        <v>1293</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>925</v>
@@ -9883,8 +9885,8 @@
       <c r="B312" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="C312" s="5" t="s">
-        <v>1284</v>
+      <c r="C312" s="2" t="s">
+        <v>1294</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>927</v>
@@ -9901,8 +9903,8 @@
       <c r="B313" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="C313" s="5" t="s">
-        <v>1285</v>
+      <c r="C313" s="2" t="s">
+        <v>1295</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>929</v>
@@ -9919,8 +9921,8 @@
       <c r="B314" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="C314" s="5" t="s">
-        <v>1286</v>
+      <c r="C314" s="2" t="s">
+        <v>1296</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>931</v>
@@ -9937,8 +9939,8 @@
       <c r="B315" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="C315" s="5" t="s">
-        <v>1287</v>
+      <c r="C315" s="2" t="s">
+        <v>1297</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>934</v>
@@ -9955,8 +9957,8 @@
       <c r="B316" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="C316" s="5" t="s">
-        <v>1288</v>
+      <c r="C316" s="2" t="s">
+        <v>1298</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>936</v>
@@ -9973,8 +9975,8 @@
       <c r="B317" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="C317" s="5" t="s">
-        <v>1289</v>
+      <c r="C317" s="2" t="s">
+        <v>1299</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>938</v>
@@ -9991,8 +9993,8 @@
       <c r="B318" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="C318" s="5" t="s">
-        <v>1290</v>
+      <c r="C318" s="2" t="s">
+        <v>1300</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>940</v>
@@ -10009,8 +10011,8 @@
       <c r="B319" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="C319" s="5" t="s">
-        <v>1291</v>
+      <c r="C319" s="2" t="s">
+        <v>1301</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>942</v>
@@ -10027,8 +10029,8 @@
       <c r="B320" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="C320" s="5" t="s">
-        <v>1292</v>
+      <c r="C320" s="2" t="s">
+        <v>1302</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>944</v>
@@ -10045,8 +10047,8 @@
       <c r="B321" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="C321" s="5" t="s">
-        <v>1293</v>
+      <c r="C321" s="2" t="s">
+        <v>1303</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>946</v>
@@ -10063,8 +10065,8 @@
       <c r="B322" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="C322" s="5" t="s">
-        <v>1294</v>
+      <c r="C322" s="2" t="s">
+        <v>1304</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>948</v>
@@ -10081,8 +10083,8 @@
       <c r="B323" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="C323" s="5" t="s">
-        <v>1295</v>
+      <c r="C323" s="2" t="s">
+        <v>1305</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>950</v>
@@ -10099,8 +10101,8 @@
       <c r="B324" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="C324" s="5" t="s">
-        <v>1296</v>
+      <c r="C324" s="2" t="s">
+        <v>1306</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>952</v>
@@ -10117,8 +10119,8 @@
       <c r="B325" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="C325" s="5" t="s">
-        <v>1297</v>
+      <c r="C325" s="2" t="s">
+        <v>1307</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>954</v>
@@ -10135,8 +10137,8 @@
       <c r="B326" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="C326" s="5" t="s">
-        <v>1298</v>
+      <c r="C326" s="2" t="s">
+        <v>1308</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>956</v>
@@ -10153,8 +10155,8 @@
       <c r="B327" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="C327" s="5" t="s">
-        <v>1299</v>
+      <c r="C327" s="2" t="s">
+        <v>1309</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>958</v>
@@ -10171,8 +10173,8 @@
       <c r="B328" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="C328" s="5" t="s">
-        <v>1300</v>
+      <c r="C328" s="2" t="s">
+        <v>1310</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>960</v>
@@ -10189,8 +10191,8 @@
       <c r="B329" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="C329" s="5" t="s">
-        <v>1301</v>
+      <c r="C329" s="2" t="s">
+        <v>1311</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>962</v>
@@ -10205,10 +10207,10 @@
         <v>296</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C330" s="5" t="s">
-        <v>1302</v>
+        <v>981</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>1312</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>963</v>
@@ -10225,8 +10227,8 @@
       <c r="B331" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="C331" s="5" t="s">
-        <v>1303</v>
+      <c r="C331" s="2" t="s">
+        <v>1313</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>965</v>
@@ -10241,10 +10243,10 @@
         <v>298</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C332" s="5" t="s">
-        <v>1304</v>
+        <v>975</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>1314</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>966</v>
@@ -10259,10 +10261,10 @@
         <v>299</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>1305</v>
+        <v>976</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>1315</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>967</v>
@@ -10277,10 +10279,10 @@
         <v>300</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C334" s="5" t="s">
-        <v>1306</v>
+        <v>977</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>1316</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>968</v>
@@ -10295,10 +10297,10 @@
         <v>301</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>1307</v>
+        <v>978</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>1317</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>915</v>
@@ -10313,10 +10315,10 @@
         <v>302</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>1308</v>
+        <v>979</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>1318</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>969</v>
@@ -10331,10 +10333,10 @@
         <v>303</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>1309</v>
+        <v>980</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>1319</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>970</v>
